--- a/Auswertung Max/Rohdaten/Fragenkatalog v2.5.xlsx
+++ b/Auswertung Max/Rohdaten/Fragenkatalog v2.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Dokumente\GEN-EM\BEAM Survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Daten\Gen-EM\GitHub\beam-survey\Fragenkatalog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C065B96F-E4A2-41F2-9EE9-6D9F52FEEEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4E0117-FCA9-40DA-B35F-D06F7D565178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="21705" xr2:uid="{4B1EA12F-121E-454C-BE79-63558638E138}"/>
+    <workbookView xWindow="-21705" yWindow="12795" windowWidth="21810" windowHeight="12915" xr2:uid="{4B1EA12F-121E-454C-BE79-63558638E138}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2588,11 +2588,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2603,11 +2618,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2624,6 +2666,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2633,17 +2681,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2652,9 +2697,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2666,86 +2708,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2758,26 +2737,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2794,44 +2806,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3149,8 +3149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27653B8C-3F0B-401F-9BDF-25B811D2DEF3}">
   <dimension ref="A1:G566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B527" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D556" sqref="D556:F556"/>
+    <sheetView tabSelected="1" topLeftCell="B129" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,14 +3170,14 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3187,123 +3187,123 @@
       <c r="C4" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="64" t="s">
+      <c r="C6" s="48"/>
+      <c r="D6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="82"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="53"/>
+      <c r="D7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="71"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="50"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="71"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="50"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="71"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="50"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="71"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="3">
         <v>5</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="3">
         <v>6</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="F13" s="50"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="45"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="4">
         <v>7</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="54"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3313,134 +3313,134 @@
       <c r="C16" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="83" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="64" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="67" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="70"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="48"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="43"/>
-      <c r="C21" s="71"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="3">
         <v>2</v>
       </c>
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="50"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="43"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="3">
         <v>3</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="50"/>
+      <c r="F22" s="34"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="43"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="3">
         <v>4</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="34"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="3">
         <v>5</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="50"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="71"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="3">
         <v>6</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="50"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="43"/>
-      <c r="C26" s="71"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="63"/>
       <c r="D26" s="3">
         <v>7</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="50"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="72"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="54"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3450,99 +3450,99 @@
       <c r="D29" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30" t="s">
+      <c r="D30" s="65"/>
+      <c r="E30" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="23" t="s">
+      <c r="D31" s="48"/>
+      <c r="E31" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="95"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="83"/>
+      <c r="G32" s="84"/>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C33" s="41" t="s">
+      <c r="C33" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="48"/>
+      <c r="G33" s="62"/>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="3">
         <v>2</v>
       </c>
-      <c r="F34" s="50" t="s">
+      <c r="F34" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="50"/>
+      <c r="G34" s="34"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="3">
         <v>3</v>
       </c>
-      <c r="F35" s="50" t="s">
+      <c r="F35" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="50"/>
+      <c r="G35" s="34"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="3">
         <v>4</v>
       </c>
-      <c r="F36" s="50" t="s">
+      <c r="F36" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="50"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="45"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="4">
         <v>5</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="39"/>
     </row>
     <row r="38" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3552,28 +3552,28 @@
       <c r="D39" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30" t="s">
+      <c r="D40" s="65"/>
+      <c r="E40" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="11" t="s">
         <v>39</v>
       </c>
@@ -3581,114 +3581,114 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="37"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="95"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="84"/>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="2">
         <v>1</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="62"/>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G44" s="50"/>
+      <c r="G44" s="34"/>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="3">
         <v>3</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="50"/>
+      <c r="G45" s="34"/>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C46" s="43"/>
-      <c r="D46" s="44"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="3">
         <v>4</v>
       </c>
-      <c r="F46" s="50" t="s">
+      <c r="F46" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G46" s="50"/>
+      <c r="G46" s="34"/>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="3">
         <v>5</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G47" s="50"/>
+      <c r="G47" s="34"/>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="3">
         <v>6</v>
       </c>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G48" s="50"/>
+      <c r="G48" s="34"/>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C49" s="43"/>
-      <c r="D49" s="44"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="3">
         <v>7</v>
       </c>
-      <c r="F49" s="50" t="s">
+      <c r="F49" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G49" s="50"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="3">
         <v>8</v>
       </c>
-      <c r="F50" s="50" t="s">
+      <c r="F50" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G50" s="50"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="45"/>
-      <c r="D51" s="46"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="4">
         <v>9</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="F51" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G51" s="54"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3698,17 +3698,17 @@
       <c r="D53" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="25" t="s">
+      <c r="E53" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="27"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="65"/>
       <c r="E54" s="5" t="s">
         <v>218</v>
       </c>
@@ -3716,37 +3716,37 @@
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="23" t="s">
+      <c r="D55" s="48"/>
+      <c r="E55" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="35"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
     </row>
     <row r="56" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="64" t="s">
+      <c r="D56" s="53"/>
+      <c r="E56" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="25"/>
     </row>
     <row r="57" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="D57" s="72"/>
+      <c r="D57" s="29"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="96" t="s">
+      <c r="F57" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="G57" s="97"/>
+      <c r="G57" s="86"/>
     </row>
     <row r="58" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3756,143 +3756,143 @@
       <c r="D59" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30" t="s">
+      <c r="D60" s="65"/>
+      <c r="E60" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D61" s="34"/>
-      <c r="E61" s="23" t="s">
+      <c r="D61" s="48"/>
+      <c r="E61" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F61" s="24"/>
+      <c r="F61" s="50"/>
       <c r="G61" s="12"/>
     </row>
     <row r="62" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="94"/>
-      <c r="G62" s="95"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="84"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="42"/>
+      <c r="D63" s="57"/>
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="47" t="s">
+      <c r="F63" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G63" s="48"/>
+      <c r="G63" s="62"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C64" s="43"/>
-      <c r="D64" s="44"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="3">
         <v>2</v>
       </c>
-      <c r="F64" s="50" t="s">
+      <c r="F64" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G64" s="50"/>
+      <c r="G64" s="34"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="43"/>
-      <c r="D65" s="44"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="3">
         <v>3</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G65" s="50"/>
+      <c r="G65" s="34"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C66" s="43"/>
-      <c r="D66" s="44"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="3">
         <v>4</v>
       </c>
-      <c r="F66" s="50" t="s">
+      <c r="F66" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G66" s="50"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C67" s="43"/>
-      <c r="D67" s="44"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="3">
         <v>5</v>
       </c>
-      <c r="F67" s="49" t="s">
+      <c r="F67" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G67" s="50"/>
+      <c r="G67" s="34"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C68" s="43"/>
-      <c r="D68" s="44"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="3">
         <v>6</v>
       </c>
-      <c r="F68" s="50" t="s">
+      <c r="F68" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="50"/>
+      <c r="G68" s="34"/>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="43"/>
-      <c r="D69" s="44"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="3">
         <v>7</v>
       </c>
-      <c r="F69" s="50" t="s">
+      <c r="F69" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="50"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="43"/>
-      <c r="D70" s="44"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="3">
         <v>8</v>
       </c>
-      <c r="F70" s="50" t="s">
+      <c r="F70" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G70" s="50"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="45"/>
-      <c r="D71" s="46"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="60"/>
       <c r="E71" s="4">
         <v>9</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="F71" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="54"/>
+      <c r="G71" s="39"/>
     </row>
     <row r="72" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3902,143 +3902,143 @@
       <c r="D73" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E73" s="25" t="s">
+      <c r="E73" s="30" t="s">
         <v>237</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="27"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="32"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D74" s="29"/>
-      <c r="E74" s="30" t="s">
+      <c r="D74" s="65"/>
+      <c r="E74" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="32"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="46"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="33" t="s">
+      <c r="C75" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="23" t="s">
+      <c r="D75" s="48"/>
+      <c r="E75" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="F75" s="24"/>
+      <c r="F75" s="50"/>
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="37"/>
-      <c r="E76" s="93"/>
-      <c r="F76" s="94"/>
-      <c r="G76" s="95"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="84"/>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="42"/>
+      <c r="D77" s="57"/>
       <c r="E77" s="2">
         <v>1</v>
       </c>
-      <c r="F77" s="47" t="s">
+      <c r="F77" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="48"/>
+      <c r="G77" s="62"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C78" s="43"/>
-      <c r="D78" s="44"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="3">
         <v>2</v>
       </c>
-      <c r="F78" s="50" t="s">
+      <c r="F78" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G78" s="50"/>
+      <c r="G78" s="34"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C79" s="43"/>
-      <c r="D79" s="44"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="3">
         <v>3</v>
       </c>
-      <c r="F79" s="50" t="s">
+      <c r="F79" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="34"/>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="43"/>
-      <c r="D80" s="44"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="3">
         <v>4</v>
       </c>
-      <c r="F80" s="50" t="s">
+      <c r="F80" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="34"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="43"/>
-      <c r="D81" s="44"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="3">
         <v>5</v>
       </c>
-      <c r="F81" s="49" t="s">
+      <c r="F81" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="G81" s="50"/>
+      <c r="G81" s="34"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C82" s="43"/>
-      <c r="D82" s="44"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="3">
         <v>6</v>
       </c>
-      <c r="F82" s="50" t="s">
+      <c r="F82" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="G82" s="50"/>
+      <c r="G82" s="34"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C83" s="43"/>
-      <c r="D83" s="44"/>
+      <c r="C83" s="58"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="3">
         <v>7</v>
       </c>
-      <c r="F83" s="50" t="s">
+      <c r="F83" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="G83" s="50"/>
+      <c r="G83" s="34"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C84" s="43"/>
-      <c r="D84" s="44"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="3">
         <v>8</v>
       </c>
-      <c r="F84" s="50" t="s">
+      <c r="F84" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G84" s="50"/>
+      <c r="G84" s="34"/>
     </row>
     <row r="85" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C85" s="45"/>
-      <c r="D85" s="46"/>
+      <c r="C85" s="28"/>
+      <c r="D85" s="60"/>
       <c r="E85" s="4">
         <v>9</v>
       </c>
-      <c r="F85" s="53" t="s">
+      <c r="F85" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="54"/>
+      <c r="G85" s="39"/>
     </row>
     <row r="86" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="16"/>
@@ -4050,68 +4050,68 @@
       <c r="D87" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="25" t="s">
+      <c r="E87" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="29"/>
-      <c r="E88" s="83" t="s">
+      <c r="D88" s="65"/>
+      <c r="E88" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F88" s="65"/>
-      <c r="G88" s="66"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="E89" s="23" t="s">
+      <c r="D89" s="48"/>
+      <c r="E89" s="49" t="s">
         <v>294</v>
       </c>
-      <c r="F89" s="24"/>
-      <c r="G89" s="35"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="51"/>
     </row>
     <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D90" s="37"/>
-      <c r="E90" s="76" t="s">
+      <c r="D90" s="53"/>
+      <c r="E90" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="F90" s="77"/>
-      <c r="G90" s="78"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="71"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="42"/>
+      <c r="D91" s="57"/>
       <c r="E91" s="2">
         <v>1</v>
       </c>
-      <c r="F91" s="47" t="s">
+      <c r="F91" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="G91" s="48"/>
+      <c r="G91" s="62"/>
     </row>
     <row r="92" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="45"/>
-      <c r="D92" s="46"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="60"/>
       <c r="E92" s="4">
         <v>2</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="38" t="s">
         <v>297</v>
       </c>
-      <c r="G92" s="54"/>
+      <c r="G92" s="39"/>
     </row>
     <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="16"/>
@@ -4123,79 +4123,79 @@
       <c r="D94" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="E94" s="25" t="s">
+      <c r="E94" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="F94" s="26"/>
-      <c r="G94" s="27"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="32"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D95" s="29"/>
-      <c r="E95" s="83" t="s">
+      <c r="D95" s="65"/>
+      <c r="E95" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F95" s="65"/>
-      <c r="G95" s="66"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="37"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C96" s="33" t="s">
+      <c r="C96" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="23" t="s">
+      <c r="D96" s="48"/>
+      <c r="E96" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="F96" s="24"/>
-      <c r="G96" s="35"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="51"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C97" s="36" t="s">
+      <c r="C97" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="37"/>
-      <c r="E97" s="76" t="s">
+      <c r="D97" s="53"/>
+      <c r="E97" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="F97" s="77"/>
-      <c r="G97" s="78"/>
+      <c r="F97" s="70"/>
+      <c r="G97" s="71"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="42"/>
+      <c r="D98" s="57"/>
       <c r="E98" s="2">
         <v>1</v>
       </c>
-      <c r="F98" s="47" t="s">
+      <c r="F98" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="G98" s="48"/>
+      <c r="G98" s="62"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C99" s="43"/>
-      <c r="D99" s="44"/>
+      <c r="C99" s="58"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="3">
         <v>2</v>
       </c>
-      <c r="F99" s="50" t="s">
+      <c r="F99" s="34" t="s">
         <v>291</v>
       </c>
-      <c r="G99" s="50"/>
+      <c r="G99" s="34"/>
     </row>
     <row r="100" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="45"/>
-      <c r="D100" s="46"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="60"/>
       <c r="E100" s="4">
         <v>3</v>
       </c>
-      <c r="F100" s="53" t="s">
+      <c r="F100" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="G100" s="54"/>
+      <c r="G100" s="39"/>
     </row>
     <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="16"/>
@@ -4208,112 +4208,112 @@
       <c r="D102" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="E102" s="25" t="s">
+      <c r="E102" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C103" s="28" t="s">
+      <c r="C103" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="30" t="s">
+      <c r="D103" s="65"/>
+      <c r="E103" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F103" s="31"/>
-      <c r="G103" s="32"/>
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C104" s="33" t="s">
+      <c r="C104" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="23" t="s">
+      <c r="D104" s="48"/>
+      <c r="E104" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F104" s="24"/>
-      <c r="G104" s="35"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="51"/>
     </row>
     <row r="105" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C105" s="36" t="s">
+      <c r="C105" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="37"/>
-      <c r="E105" s="76" t="s">
+      <c r="D105" s="53"/>
+      <c r="E105" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="F105" s="77"/>
-      <c r="G105" s="78"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="42"/>
+      <c r="D106" s="57"/>
       <c r="E106" s="2">
         <v>1</v>
       </c>
-      <c r="F106" s="47" t="s">
+      <c r="F106" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="G106" s="48"/>
+      <c r="G106" s="62"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C107" s="43"/>
-      <c r="D107" s="44"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="3">
         <v>2</v>
       </c>
-      <c r="F107" s="50" t="s">
+      <c r="F107" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="G107" s="50"/>
+      <c r="G107" s="34"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C108" s="43"/>
-      <c r="D108" s="44"/>
+      <c r="C108" s="58"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="3">
         <v>3</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F108" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="G108" s="50"/>
+      <c r="G108" s="34"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C109" s="43"/>
-      <c r="D109" s="44"/>
+      <c r="C109" s="58"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="3">
         <v>4</v>
       </c>
-      <c r="F109" s="49" t="s">
+      <c r="F109" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G109" s="50"/>
+      <c r="G109" s="34"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C110" s="43"/>
-      <c r="D110" s="44"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="59"/>
       <c r="E110" s="3">
         <v>5</v>
       </c>
-      <c r="F110" s="50" t="s">
+      <c r="F110" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="G110" s="50"/>
+      <c r="G110" s="34"/>
     </row>
     <row r="111" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="45"/>
-      <c r="D111" s="46"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="60"/>
       <c r="E111" s="4">
         <v>6</v>
       </c>
-      <c r="F111" s="53" t="s">
+      <c r="F111" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="54"/>
+      <c r="G111" s="39"/>
     </row>
     <row r="112" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="113" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4323,68 +4323,68 @@
       <c r="D113" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="25" t="s">
+      <c r="E113" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="F113" s="26"/>
-      <c r="G113" s="27"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="32"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C114" s="28" t="s">
+      <c r="C114" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D114" s="29"/>
-      <c r="E114" s="30" t="s">
+      <c r="D114" s="65"/>
+      <c r="E114" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F114" s="31"/>
-      <c r="G114" s="32"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="46"/>
     </row>
     <row r="115" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" s="104" t="s">
+      <c r="C115" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="105"/>
-      <c r="E115" s="84" t="s">
+      <c r="D115" s="67"/>
+      <c r="E115" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="35"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="51"/>
     </row>
     <row r="116" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="36" t="s">
+      <c r="C116" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D116" s="37"/>
-      <c r="E116" s="76" t="s">
+      <c r="D116" s="53"/>
+      <c r="E116" s="69" t="s">
         <v>186</v>
       </c>
-      <c r="F116" s="77"/>
-      <c r="G116" s="78"/>
+      <c r="F116" s="70"/>
+      <c r="G116" s="71"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C117" s="41" t="s">
+      <c r="C117" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D117" s="42"/>
+      <c r="D117" s="57"/>
       <c r="E117" s="2">
         <v>1</v>
       </c>
-      <c r="F117" s="47" t="s">
+      <c r="F117" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="G117" s="48"/>
+      <c r="G117" s="62"/>
     </row>
     <row r="118" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="45"/>
-      <c r="D118" s="46"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="60"/>
       <c r="E118" s="4">
         <v>2</v>
       </c>
-      <c r="F118" s="53" t="s">
+      <c r="F118" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="G118" s="54"/>
+      <c r="G118" s="39"/>
     </row>
     <row r="119" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="120" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4394,68 +4394,68 @@
       <c r="C120" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="D120" s="61" t="s">
+      <c r="D120" s="41" t="s">
         <v>253</v>
       </c>
-      <c r="E120" s="62"/>
-      <c r="F120" s="63"/>
+      <c r="E120" s="42"/>
+      <c r="F120" s="43"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="34"/>
-      <c r="D121" s="83" t="s">
+      <c r="C121" s="48"/>
+      <c r="D121" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="65"/>
-      <c r="F121" s="66"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="37"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C122" s="34"/>
-      <c r="D122" s="64" t="s">
+      <c r="C122" s="48"/>
+      <c r="D122" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="81"/>
-      <c r="F122" s="82"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="25"/>
     </row>
     <row r="123" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="99" t="s">
+      <c r="B123" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="100"/>
-      <c r="D123" s="101" t="s">
+      <c r="C123" s="88"/>
+      <c r="D123" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="E123" s="102"/>
-      <c r="F123" s="103"/>
+      <c r="E123" s="55"/>
+      <c r="F123" s="56"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="70"/>
+      <c r="C124" s="27"/>
       <c r="D124" s="2">
         <v>1</v>
       </c>
-      <c r="E124" s="47" t="s">
+      <c r="E124" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="48"/>
+      <c r="F124" s="62"/>
     </row>
     <row r="125" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="45"/>
-      <c r="C125" s="72"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="29"/>
       <c r="D125" s="4">
         <v>2</v>
       </c>
-      <c r="E125" s="53" t="s">
+      <c r="E125" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F125" s="54"/>
+      <c r="F125" s="39"/>
     </row>
     <row r="126" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="127" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4466,148 +4466,148 @@
       <c r="D127" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="E127" s="25" t="s">
+      <c r="E127" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="F127" s="26"/>
-      <c r="G127" s="27"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="32"/>
     </row>
     <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="8"/>
-      <c r="C128" s="28" t="s">
+      <c r="C128" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D128" s="29"/>
-      <c r="E128" s="30" t="s">
+      <c r="D128" s="65"/>
+      <c r="E128" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F128" s="31"/>
-      <c r="G128" s="32"/>
+      <c r="F128" s="45"/>
+      <c r="G128" s="46"/>
     </row>
     <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="8"/>
-      <c r="C129" s="33" t="s">
+      <c r="C129" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D129" s="34"/>
-      <c r="E129" s="23" t="s">
+      <c r="D129" s="48"/>
+      <c r="E129" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F129" s="24"/>
-      <c r="G129" s="35"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="51"/>
     </row>
     <row r="130" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="8"/>
-      <c r="C130" s="36" t="s">
+      <c r="C130" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="37"/>
-      <c r="E130" s="101" t="s">
+      <c r="D130" s="53"/>
+      <c r="E130" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F130" s="102"/>
-      <c r="G130" s="103"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="56"/>
     </row>
     <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" s="41" t="s">
+      <c r="C131" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="42"/>
+      <c r="D131" s="57"/>
       <c r="E131" s="2">
         <v>1</v>
       </c>
-      <c r="F131" s="47" t="s">
+      <c r="F131" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="G131" s="48"/>
+      <c r="G131" s="62"/>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" s="43"/>
-      <c r="D132" s="44"/>
+      <c r="C132" s="58"/>
+      <c r="D132" s="59"/>
       <c r="E132" s="3">
         <v>2</v>
       </c>
-      <c r="F132" s="49" t="s">
+      <c r="F132" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="G132" s="50"/>
+      <c r="G132" s="34"/>
     </row>
     <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" s="43"/>
-      <c r="D133" s="44"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="3">
         <v>3</v>
       </c>
-      <c r="F133" s="49" t="s">
+      <c r="F133" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="G133" s="50"/>
+      <c r="G133" s="34"/>
     </row>
     <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
+      <c r="C134" s="58"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="3">
         <v>4</v>
       </c>
-      <c r="F134" s="49" t="s">
+      <c r="F134" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="G134" s="50"/>
+      <c r="G134" s="34"/>
     </row>
     <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" s="43"/>
-      <c r="D135" s="44"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="3">
         <v>5</v>
       </c>
-      <c r="F135" s="49" t="s">
+      <c r="F135" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="G135" s="50"/>
+      <c r="G135" s="34"/>
     </row>
     <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" s="43"/>
-      <c r="D136" s="44"/>
+      <c r="C136" s="58"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="3">
         <v>6</v>
       </c>
-      <c r="F136" s="79" t="s">
+      <c r="F136" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="G136" s="80"/>
+      <c r="G136" s="73"/>
     </row>
     <row r="137" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" s="43"/>
-      <c r="D137" s="44"/>
+      <c r="C137" s="58"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="3">
         <v>7</v>
       </c>
-      <c r="F137" s="79" t="s">
+      <c r="F137" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="G137" s="80"/>
+      <c r="G137" s="73"/>
     </row>
     <row r="138" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" s="43"/>
-      <c r="D138" s="44"/>
+      <c r="C138" s="58"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="3">
         <v>8</v>
       </c>
-      <c r="F138" s="49" t="s">
+      <c r="F138" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="G138" s="50"/>
+      <c r="G138" s="34"/>
     </row>
     <row r="139" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="45"/>
-      <c r="D139" s="46"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="60"/>
       <c r="E139" s="4">
         <v>9</v>
       </c>
-      <c r="F139" s="53" t="s">
+      <c r="F139" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="G139" s="54"/>
+      <c r="G139" s="39"/>
     </row>
     <row r="140" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="141" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4618,97 +4618,97 @@
       <c r="D141" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="E141" s="25" t="s">
+      <c r="E141" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="F141" s="26"/>
-      <c r="G141" s="27"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="32"/>
     </row>
     <row r="142" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="8"/>
-      <c r="C142" s="28" t="s">
+      <c r="C142" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D142" s="29"/>
-      <c r="E142" s="30" t="s">
+      <c r="D142" s="65"/>
+      <c r="E142" s="44" t="s">
         <v>343</v>
       </c>
-      <c r="F142" s="31"/>
-      <c r="G142" s="32"/>
+      <c r="F142" s="45"/>
+      <c r="G142" s="46"/>
     </row>
     <row r="143" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="8"/>
-      <c r="C143" s="33" t="s">
+      <c r="C143" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D143" s="34"/>
-      <c r="E143" s="23" t="s">
+      <c r="D143" s="48"/>
+      <c r="E143" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="F143" s="24"/>
-      <c r="G143" s="35"/>
+      <c r="F143" s="50"/>
+      <c r="G143" s="51"/>
     </row>
     <row r="144" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="8"/>
-      <c r="C144" s="36" t="s">
+      <c r="C144" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D144" s="37"/>
-      <c r="E144" s="101" t="s">
+      <c r="D144" s="53"/>
+      <c r="E144" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="F144" s="102"/>
-      <c r="G144" s="103"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="56"/>
     </row>
     <row r="145" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="41" t="s">
+      <c r="C145" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="42"/>
+      <c r="D145" s="57"/>
       <c r="E145" s="2">
         <v>1</v>
       </c>
-      <c r="F145" s="47" t="s">
+      <c r="F145" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="G145" s="48"/>
+      <c r="G145" s="62"/>
     </row>
     <row r="146" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="43"/>
-      <c r="D146" s="44"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="3">
         <v>2</v>
       </c>
-      <c r="F146" s="49" t="s">
+      <c r="F146" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="G146" s="50"/>
+      <c r="G146" s="34"/>
     </row>
     <row r="147" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="43"/>
-      <c r="D147" s="44"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="3">
         <v>3</v>
       </c>
-      <c r="F147" s="49" t="s">
+      <c r="F147" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="G147" s="50"/>
+      <c r="G147" s="34"/>
     </row>
     <row r="148" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="43"/>
-      <c r="D148" s="44"/>
+      <c r="C148" s="58"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="3">
         <v>4</v>
       </c>
-      <c r="F148" s="49" t="s">
+      <c r="F148" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="G148" s="50"/>
+      <c r="G148" s="34"/>
     </row>
     <row r="149" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="43"/>
-      <c r="D149" s="44"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="59"/>
       <c r="E149" s="3">
         <v>5</v>
       </c>
@@ -4718,24 +4718,24 @@
       <c r="G149" s="18"/>
     </row>
     <row r="150" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C150" s="45"/>
-      <c r="D150" s="46"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="60"/>
       <c r="E150" s="4">
         <v>6</v>
       </c>
-      <c r="F150" s="53" t="s">
+      <c r="F150" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="G150" s="54"/>
+      <c r="G150" s="39"/>
     </row>
     <row r="152" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="98" t="s">
+      <c r="B152" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C152" s="98"/>
-      <c r="D152" s="98"/>
-      <c r="E152" s="98"/>
-      <c r="F152" s="98"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="40"/>
     </row>
     <row r="153" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="154" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4745,187 +4745,187 @@
       <c r="C154" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D154" s="61" t="s">
+      <c r="D154" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="E154" s="62"/>
-      <c r="F154" s="63"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B155" s="33" t="s">
+      <c r="B155" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C155" s="34"/>
-      <c r="D155" s="83" t="s">
+      <c r="C155" s="48"/>
+      <c r="D155" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="E155" s="65"/>
-      <c r="F155" s="66"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="37"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="33" t="s">
+      <c r="B156" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="64" t="s">
+      <c r="C156" s="48"/>
+      <c r="D156" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="81"/>
-      <c r="F156" s="82"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="25"/>
     </row>
     <row r="157" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="36" t="s">
+      <c r="B157" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="37"/>
-      <c r="D157" s="58" t="s">
+      <c r="C157" s="53"/>
+      <c r="D157" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E157" s="59"/>
-      <c r="F157" s="60"/>
+      <c r="E157" s="75"/>
+      <c r="F157" s="76"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="41" t="s">
+      <c r="B158" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C158" s="70"/>
+      <c r="C158" s="27"/>
       <c r="D158" s="2">
         <v>1</v>
       </c>
-      <c r="E158" s="47" t="s">
+      <c r="E158" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="F158" s="48"/>
+      <c r="F158" s="62"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="43"/>
-      <c r="C159" s="71"/>
+      <c r="B159" s="58"/>
+      <c r="C159" s="63"/>
       <c r="D159" s="3">
         <v>2</v>
       </c>
-      <c r="E159" s="49" t="s">
+      <c r="E159" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="F159" s="50"/>
+      <c r="F159" s="34"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="43"/>
-      <c r="C160" s="71"/>
+      <c r="B160" s="58"/>
+      <c r="C160" s="63"/>
       <c r="D160" s="3">
         <v>3</v>
       </c>
-      <c r="E160" s="49" t="s">
+      <c r="E160" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="F160" s="50"/>
+      <c r="F160" s="34"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="43"/>
-      <c r="C161" s="71"/>
+      <c r="B161" s="58"/>
+      <c r="C161" s="63"/>
       <c r="D161" s="3">
         <v>4</v>
       </c>
-      <c r="E161" s="49" t="s">
+      <c r="E161" s="33" t="s">
         <v>208</v>
       </c>
-      <c r="F161" s="50"/>
+      <c r="F161" s="34"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="43"/>
-      <c r="C162" s="71"/>
+      <c r="B162" s="58"/>
+      <c r="C162" s="63"/>
       <c r="D162" s="3">
         <v>5</v>
       </c>
-      <c r="E162" s="49" t="s">
+      <c r="E162" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F162" s="50"/>
+      <c r="F162" s="34"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="43"/>
-      <c r="C163" s="71"/>
+      <c r="B163" s="58"/>
+      <c r="C163" s="63"/>
       <c r="D163" s="3">
         <v>6</v>
       </c>
-      <c r="E163" s="49" t="s">
+      <c r="E163" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="F163" s="50"/>
+      <c r="F163" s="34"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="43"/>
-      <c r="C164" s="71"/>
+      <c r="B164" s="58"/>
+      <c r="C164" s="63"/>
       <c r="D164" s="3">
         <v>7</v>
       </c>
-      <c r="E164" s="49" t="s">
+      <c r="E164" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="F164" s="50"/>
+      <c r="F164" s="34"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="43"/>
-      <c r="C165" s="71"/>
+      <c r="B165" s="58"/>
+      <c r="C165" s="63"/>
       <c r="D165" s="3">
         <v>8</v>
       </c>
-      <c r="E165" s="49" t="s">
+      <c r="E165" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="F165" s="50"/>
+      <c r="F165" s="34"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="43"/>
-      <c r="C166" s="71"/>
+      <c r="B166" s="58"/>
+      <c r="C166" s="63"/>
       <c r="D166" s="3">
         <v>9</v>
       </c>
-      <c r="E166" s="49" t="s">
+      <c r="E166" s="33" t="s">
         <v>211</v>
       </c>
-      <c r="F166" s="50"/>
+      <c r="F166" s="34"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="43"/>
-      <c r="C167" s="71"/>
+      <c r="B167" s="58"/>
+      <c r="C167" s="63"/>
       <c r="D167" s="3">
         <v>10</v>
       </c>
-      <c r="E167" s="49" t="s">
+      <c r="E167" s="33" t="s">
         <v>212</v>
       </c>
-      <c r="F167" s="50"/>
+      <c r="F167" s="34"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="43"/>
-      <c r="C168" s="71"/>
+      <c r="B168" s="58"/>
+      <c r="C168" s="63"/>
       <c r="D168" s="3">
         <v>11</v>
       </c>
-      <c r="E168" s="49" t="s">
+      <c r="E168" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="F168" s="50"/>
+      <c r="F168" s="34"/>
     </row>
     <row r="169" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B169" s="45"/>
-      <c r="C169" s="72"/>
+      <c r="B169" s="28"/>
+      <c r="C169" s="29"/>
       <c r="D169" s="4">
         <v>12</v>
       </c>
-      <c r="E169" s="53" t="s">
+      <c r="E169" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="F169" s="54"/>
+      <c r="F169" s="39"/>
     </row>
     <row r="171" spans="2:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="98" t="s">
+      <c r="B171" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C171" s="98"/>
-      <c r="D171" s="98"/>
-      <c r="E171" s="98"/>
-      <c r="F171" s="98"/>
+      <c r="C171" s="40"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
     </row>
     <row r="172" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="173" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4935,68 +4935,68 @@
       <c r="C173" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D173" s="61" t="s">
+      <c r="D173" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E173" s="62"/>
-      <c r="F173" s="63"/>
+      <c r="E173" s="42"/>
+      <c r="F173" s="43"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="33" t="s">
+      <c r="B174" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="34"/>
-      <c r="D174" s="83" t="s">
+      <c r="C174" s="48"/>
+      <c r="D174" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E174" s="65"/>
-      <c r="F174" s="66"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="37"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B175" s="33" t="s">
+      <c r="B175" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C175" s="34"/>
-      <c r="D175" s="64" t="s">
+      <c r="C175" s="48"/>
+      <c r="D175" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E175" s="81"/>
-      <c r="F175" s="82"/>
+      <c r="E175" s="24"/>
+      <c r="F175" s="25"/>
     </row>
     <row r="176" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B176" s="36" t="s">
+      <c r="B176" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C176" s="37"/>
-      <c r="D176" s="64" t="s">
+      <c r="C176" s="53"/>
+      <c r="D176" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E176" s="81"/>
-      <c r="F176" s="82"/>
+      <c r="E176" s="24"/>
+      <c r="F176" s="25"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C177" s="70"/>
+      <c r="C177" s="27"/>
       <c r="D177" s="2">
         <v>1</v>
       </c>
-      <c r="E177" s="47" t="s">
+      <c r="E177" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F177" s="48"/>
+      <c r="F177" s="62"/>
     </row>
     <row r="178" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="45"/>
-      <c r="C178" s="72"/>
+      <c r="B178" s="28"/>
+      <c r="C178" s="29"/>
       <c r="D178" s="4">
         <v>2</v>
       </c>
-      <c r="E178" s="53" t="s">
+      <c r="E178" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F178" s="54"/>
+      <c r="F178" s="39"/>
     </row>
     <row r="179" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="180" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5006,149 +5006,149 @@
       <c r="D180" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E180" s="25" t="s">
+      <c r="E180" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="F180" s="26"/>
-      <c r="G180" s="27"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="32"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C181" s="28" t="s">
+      <c r="C181" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D181" s="29"/>
-      <c r="E181" s="83" t="s">
+      <c r="D181" s="65"/>
+      <c r="E181" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F181" s="65"/>
-      <c r="G181" s="66"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="37"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C182" s="33" t="s">
+      <c r="C182" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D182" s="34"/>
-      <c r="E182" s="23" t="s">
+      <c r="D182" s="48"/>
+      <c r="E182" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F182" s="24"/>
-      <c r="G182" s="35"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="51"/>
     </row>
     <row r="183" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C183" s="36" t="s">
+      <c r="C183" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D183" s="37"/>
-      <c r="E183" s="64" t="s">
+      <c r="D183" s="53"/>
+      <c r="E183" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F183" s="81"/>
-      <c r="G183" s="82"/>
+      <c r="F183" s="24"/>
+      <c r="G183" s="25"/>
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C184" s="41" t="s">
+      <c r="C184" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="70"/>
+      <c r="D184" s="27"/>
       <c r="E184" s="2">
         <v>1</v>
       </c>
-      <c r="F184" s="47" t="s">
+      <c r="F184" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="G184" s="48"/>
+      <c r="G184" s="62"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C185" s="43"/>
-      <c r="D185" s="71"/>
+      <c r="C185" s="58"/>
+      <c r="D185" s="63"/>
       <c r="E185" s="3">
         <v>2</v>
       </c>
-      <c r="F185" s="49" t="s">
+      <c r="F185" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G185" s="50"/>
+      <c r="G185" s="34"/>
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C186" s="43"/>
-      <c r="D186" s="71"/>
+      <c r="C186" s="58"/>
+      <c r="D186" s="63"/>
       <c r="E186" s="3">
         <v>3</v>
       </c>
-      <c r="F186" s="49" t="s">
+      <c r="F186" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G186" s="50"/>
+      <c r="G186" s="34"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C187" s="43"/>
-      <c r="D187" s="71"/>
+      <c r="C187" s="58"/>
+      <c r="D187" s="63"/>
       <c r="E187" s="3">
         <v>4</v>
       </c>
-      <c r="F187" s="49" t="s">
+      <c r="F187" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G187" s="50"/>
+      <c r="G187" s="34"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C188" s="43"/>
-      <c r="D188" s="71"/>
+      <c r="C188" s="58"/>
+      <c r="D188" s="63"/>
       <c r="E188" s="3">
         <v>5</v>
       </c>
-      <c r="F188" s="49" t="s">
+      <c r="F188" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G188" s="50"/>
+      <c r="G188" s="34"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C189" s="43"/>
-      <c r="D189" s="71"/>
+      <c r="C189" s="58"/>
+      <c r="D189" s="63"/>
       <c r="E189" s="3">
         <v>6</v>
       </c>
-      <c r="F189" s="49" t="s">
+      <c r="F189" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G189" s="50"/>
+      <c r="G189" s="34"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C190" s="43"/>
-      <c r="D190" s="71"/>
+      <c r="C190" s="58"/>
+      <c r="D190" s="63"/>
       <c r="E190" s="3">
         <v>7</v>
       </c>
-      <c r="F190" s="49" t="s">
+      <c r="F190" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="G190" s="50"/>
+      <c r="G190" s="34"/>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C191" s="43"/>
-      <c r="D191" s="71"/>
+      <c r="C191" s="58"/>
+      <c r="D191" s="63"/>
       <c r="E191" s="3">
         <v>8</v>
       </c>
-      <c r="F191" s="49" t="s">
+      <c r="F191" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="G191" s="50"/>
+      <c r="G191" s="34"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C192" s="43"/>
-      <c r="D192" s="71"/>
+      <c r="C192" s="58"/>
+      <c r="D192" s="63"/>
       <c r="E192" s="3">
         <v>9</v>
       </c>
-      <c r="F192" s="49" t="s">
+      <c r="F192" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="G192" s="50"/>
+      <c r="G192" s="34"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C193" s="43"/>
-      <c r="D193" s="71"/>
+      <c r="C193" s="58"/>
+      <c r="D193" s="63"/>
       <c r="E193" s="3">
         <v>10</v>
       </c>
@@ -5158,15 +5158,15 @@
       <c r="G193" s="18"/>
     </row>
     <row r="194" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C194" s="45"/>
-      <c r="D194" s="72"/>
+      <c r="C194" s="28"/>
+      <c r="D194" s="29"/>
       <c r="E194" s="4">
         <v>11</v>
       </c>
-      <c r="F194" s="53" t="s">
+      <c r="F194" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="G194" s="54"/>
+      <c r="G194" s="39"/>
     </row>
     <row r="195" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="196" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5176,88 +5176,88 @@
       <c r="D196" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="E196" s="25" t="s">
+      <c r="E196" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="F196" s="26"/>
-      <c r="G196" s="27"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="32"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C197" s="28" t="s">
+      <c r="C197" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D197" s="29"/>
-      <c r="E197" s="83" t="s">
+      <c r="D197" s="65"/>
+      <c r="E197" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="F197" s="65"/>
-      <c r="G197" s="66"/>
+      <c r="F197" s="36"/>
+      <c r="G197" s="37"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C198" s="33" t="s">
+      <c r="C198" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="34"/>
-      <c r="E198" s="23" t="s">
+      <c r="D198" s="48"/>
+      <c r="E198" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="F198" s="24"/>
-      <c r="G198" s="35"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="51"/>
     </row>
     <row r="199" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C199" s="36" t="s">
+      <c r="C199" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D199" s="37"/>
-      <c r="E199" s="64" t="s">
+      <c r="D199" s="53"/>
+      <c r="E199" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F199" s="81"/>
-      <c r="G199" s="82"/>
+      <c r="F199" s="24"/>
+      <c r="G199" s="25"/>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C200" s="41" t="s">
+      <c r="C200" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="42"/>
+      <c r="D200" s="57"/>
       <c r="E200" s="2">
         <v>1</v>
       </c>
-      <c r="F200" s="47" t="s">
+      <c r="F200" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G200" s="48"/>
+      <c r="G200" s="62"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C201" s="43"/>
-      <c r="D201" s="44"/>
+      <c r="C201" s="58"/>
+      <c r="D201" s="59"/>
       <c r="E201" s="3">
         <v>2</v>
       </c>
-      <c r="F201" s="49" t="s">
+      <c r="F201" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="G201" s="50"/>
+      <c r="G201" s="34"/>
     </row>
     <row r="202" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C202" s="45"/>
-      <c r="D202" s="46"/>
+      <c r="C202" s="28"/>
+      <c r="D202" s="60"/>
       <c r="E202" s="4">
         <v>3</v>
       </c>
-      <c r="F202" s="53" t="s">
+      <c r="F202" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G202" s="54"/>
+      <c r="G202" s="39"/>
     </row>
     <row r="204" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="98" t="s">
+      <c r="B204" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C204" s="98"/>
-      <c r="D204" s="98"/>
-      <c r="E204" s="98"/>
-      <c r="F204" s="98"/>
+      <c r="C204" s="40"/>
+      <c r="D204" s="40"/>
+      <c r="E204" s="40"/>
+      <c r="F204" s="40"/>
     </row>
     <row r="205" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="206" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5267,68 +5267,68 @@
       <c r="C206" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="D206" s="61" t="s">
+      <c r="D206" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="E206" s="62"/>
-      <c r="F206" s="63"/>
+      <c r="E206" s="42"/>
+      <c r="F206" s="43"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B207" s="33" t="s">
+      <c r="B207" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C207" s="34"/>
-      <c r="D207" s="83" t="s">
+      <c r="C207" s="48"/>
+      <c r="D207" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E207" s="65"/>
-      <c r="F207" s="66"/>
+      <c r="E207" s="36"/>
+      <c r="F207" s="37"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B208" s="33" t="s">
+      <c r="B208" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C208" s="34"/>
-      <c r="D208" s="64" t="s">
+      <c r="C208" s="48"/>
+      <c r="D208" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E208" s="81"/>
-      <c r="F208" s="82"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="25"/>
     </row>
     <row r="209" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="36" t="s">
+      <c r="B209" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C209" s="37"/>
-      <c r="D209" s="64" t="s">
+      <c r="C209" s="53"/>
+      <c r="D209" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E209" s="81"/>
-      <c r="F209" s="82"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="25"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B210" s="41" t="s">
+      <c r="B210" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C210" s="70"/>
+      <c r="C210" s="27"/>
       <c r="D210" s="2">
         <v>1</v>
       </c>
-      <c r="E210" s="47" t="s">
+      <c r="E210" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F210" s="48"/>
+      <c r="F210" s="62"/>
     </row>
     <row r="211" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B211" s="45"/>
-      <c r="C211" s="72"/>
+      <c r="B211" s="28"/>
+      <c r="C211" s="29"/>
       <c r="D211" s="4">
         <v>2</v>
       </c>
-      <c r="E211" s="53" t="s">
+      <c r="E211" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F211" s="54"/>
+      <c r="F211" s="39"/>
     </row>
     <row r="212" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="213" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5338,94 +5338,94 @@
       <c r="D213" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E213" s="25" t="s">
+      <c r="E213" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="F213" s="26"/>
-      <c r="G213" s="27"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="32"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C214" s="28" t="s">
+      <c r="C214" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D214" s="29"/>
-      <c r="E214" s="83" t="s">
+      <c r="D214" s="65"/>
+      <c r="E214" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F214" s="65"/>
-      <c r="G214" s="66"/>
+      <c r="F214" s="36"/>
+      <c r="G214" s="37"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C215" s="33" t="s">
+      <c r="C215" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D215" s="34"/>
-      <c r="E215" s="23" t="s">
+      <c r="D215" s="48"/>
+      <c r="E215" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F215" s="24"/>
-      <c r="G215" s="35"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="51"/>
     </row>
     <row r="216" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="36" t="s">
+      <c r="C216" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D216" s="37"/>
-      <c r="E216" s="64" t="s">
+      <c r="D216" s="53"/>
+      <c r="E216" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F216" s="81"/>
-      <c r="G216" s="82"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="25"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C217" s="41" t="s">
+      <c r="C217" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D217" s="70"/>
+      <c r="D217" s="27"/>
       <c r="E217" s="2">
         <v>1</v>
       </c>
-      <c r="F217" s="47" t="s">
+      <c r="F217" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="G217" s="48"/>
+      <c r="G217" s="62"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C218" s="43"/>
-      <c r="D218" s="71"/>
+      <c r="C218" s="58"/>
+      <c r="D218" s="63"/>
       <c r="E218" s="3">
         <v>2</v>
       </c>
-      <c r="F218" s="49" t="s">
+      <c r="F218" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="G218" s="50"/>
+      <c r="G218" s="34"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C219" s="43"/>
-      <c r="D219" s="71"/>
+      <c r="C219" s="58"/>
+      <c r="D219" s="63"/>
       <c r="E219" s="3">
         <v>3</v>
       </c>
-      <c r="F219" s="49" t="s">
+      <c r="F219" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="G219" s="50"/>
+      <c r="G219" s="34"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C220" s="43"/>
-      <c r="D220" s="71"/>
+      <c r="C220" s="58"/>
+      <c r="D220" s="63"/>
       <c r="E220" s="3">
         <v>4</v>
       </c>
-      <c r="F220" s="49" t="s">
+      <c r="F220" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="G220" s="50"/>
+      <c r="G220" s="34"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C221" s="43"/>
-      <c r="D221" s="71"/>
+      <c r="C221" s="58"/>
+      <c r="D221" s="63"/>
       <c r="E221" s="3">
         <v>5</v>
       </c>
@@ -5435,15 +5435,15 @@
       <c r="G221" s="18"/>
     </row>
     <row r="222" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C222" s="45"/>
-      <c r="D222" s="72"/>
+      <c r="C222" s="28"/>
+      <c r="D222" s="29"/>
       <c r="E222" s="4">
         <v>6</v>
       </c>
-      <c r="F222" s="53" t="s">
+      <c r="F222" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="G222" s="54"/>
+      <c r="G222" s="39"/>
     </row>
     <row r="223" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="224" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5453,81 +5453,81 @@
       <c r="D224" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="E224" s="25" t="s">
+      <c r="E224" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="F224" s="26"/>
-      <c r="G224" s="27"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="32"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C225" s="28" t="s">
+      <c r="C225" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D225" s="29"/>
-      <c r="E225" s="83" t="s">
+      <c r="D225" s="65"/>
+      <c r="E225" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="F225" s="65"/>
-      <c r="G225" s="66"/>
+      <c r="F225" s="36"/>
+      <c r="G225" s="37"/>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C226" s="33" t="s">
+      <c r="C226" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D226" s="34"/>
-      <c r="E226" s="23" t="s">
+      <c r="D226" s="48"/>
+      <c r="E226" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F226" s="24"/>
-      <c r="G226" s="35"/>
+      <c r="F226" s="50"/>
+      <c r="G226" s="51"/>
     </row>
     <row r="227" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C227" s="36" t="s">
+      <c r="C227" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D227" s="37"/>
-      <c r="E227" s="64"/>
-      <c r="F227" s="81"/>
-      <c r="G227" s="82"/>
+      <c r="D227" s="53"/>
+      <c r="E227" s="23"/>
+      <c r="F227" s="24"/>
+      <c r="G227" s="25"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C228" s="41" t="s">
+      <c r="C228" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="70"/>
+      <c r="D228" s="27"/>
       <c r="E228" s="2">
         <v>1</v>
       </c>
-      <c r="F228" s="47" t="s">
+      <c r="F228" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="G228" s="48"/>
+      <c r="G228" s="62"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C229" s="43"/>
-      <c r="D229" s="71"/>
+      <c r="C229" s="58"/>
+      <c r="D229" s="63"/>
       <c r="E229" s="3">
         <v>2</v>
       </c>
-      <c r="F229" s="49" t="s">
+      <c r="F229" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="G229" s="50"/>
+      <c r="G229" s="34"/>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C230" s="43"/>
-      <c r="D230" s="71"/>
+      <c r="C230" s="58"/>
+      <c r="D230" s="63"/>
       <c r="E230" s="3">
         <v>3</v>
       </c>
-      <c r="F230" s="49" t="s">
+      <c r="F230" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="G230" s="50"/>
+      <c r="G230" s="34"/>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C231" s="43"/>
-      <c r="D231" s="71"/>
+      <c r="C231" s="58"/>
+      <c r="D231" s="63"/>
       <c r="E231" s="3">
         <v>4</v>
       </c>
@@ -5537,24 +5537,24 @@
       <c r="G231" s="18"/>
     </row>
     <row r="232" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C232" s="45"/>
-      <c r="D232" s="72"/>
+      <c r="C232" s="28"/>
+      <c r="D232" s="29"/>
       <c r="E232" s="4">
         <v>5</v>
       </c>
-      <c r="F232" s="53" t="s">
+      <c r="F232" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="G232" s="54"/>
+      <c r="G232" s="39"/>
     </row>
     <row r="234" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="98" t="s">
+      <c r="B234" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C234" s="98"/>
-      <c r="D234" s="98"/>
-      <c r="E234" s="98"/>
-      <c r="F234" s="98"/>
+      <c r="C234" s="40"/>
+      <c r="D234" s="40"/>
+      <c r="E234" s="40"/>
+      <c r="F234" s="40"/>
     </row>
     <row r="235" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="236" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5564,68 +5564,68 @@
       <c r="C236" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D236" s="61" t="s">
+      <c r="D236" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="E236" s="62"/>
-      <c r="F236" s="63"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="43"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B237" s="33" t="s">
+      <c r="B237" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C237" s="34"/>
-      <c r="D237" s="83" t="s">
+      <c r="C237" s="48"/>
+      <c r="D237" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E237" s="65"/>
-      <c r="F237" s="66"/>
+      <c r="E237" s="36"/>
+      <c r="F237" s="37"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B238" s="33" t="s">
+      <c r="B238" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C238" s="34"/>
-      <c r="D238" s="64" t="s">
+      <c r="C238" s="48"/>
+      <c r="D238" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E238" s="81"/>
-      <c r="F238" s="82"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="25"/>
     </row>
     <row r="239" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="36" t="s">
+      <c r="B239" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C239" s="37"/>
-      <c r="D239" s="64" t="s">
+      <c r="C239" s="53"/>
+      <c r="D239" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="81"/>
-      <c r="F239" s="82"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="25"/>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B240" s="41" t="s">
+      <c r="B240" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C240" s="70"/>
+      <c r="C240" s="27"/>
       <c r="D240" s="2">
         <v>1</v>
       </c>
-      <c r="E240" s="47" t="s">
+      <c r="E240" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="F240" s="48"/>
+      <c r="F240" s="62"/>
     </row>
     <row r="241" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B241" s="45"/>
-      <c r="C241" s="72"/>
+      <c r="B241" s="28"/>
+      <c r="C241" s="29"/>
       <c r="D241" s="4">
         <v>2</v>
       </c>
-      <c r="E241" s="53" t="s">
+      <c r="E241" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F241" s="54"/>
+      <c r="F241" s="39"/>
     </row>
     <row r="242" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="243" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5635,70 +5635,70 @@
       <c r="D243" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="E243" s="25" t="s">
+      <c r="E243" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="F243" s="26"/>
-      <c r="G243" s="27"/>
+      <c r="F243" s="31"/>
+      <c r="G243" s="32"/>
     </row>
     <row r="244" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C244" s="88" t="s">
+      <c r="C244" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="D244" s="89"/>
-      <c r="E244" s="90" t="s">
+      <c r="D244" s="93"/>
+      <c r="E244" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="F244" s="91"/>
-      <c r="G244" s="92"/>
+      <c r="F244" s="95"/>
+      <c r="G244" s="96"/>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C245" s="33" t="s">
+      <c r="C245" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D245" s="34"/>
-      <c r="E245" s="23" t="s">
+      <c r="D245" s="48"/>
+      <c r="E245" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F245" s="24"/>
-      <c r="G245" s="35"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="51"/>
     </row>
     <row r="246" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C246" s="36" t="s">
+      <c r="C246" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D246" s="37"/>
-      <c r="E246" s="64"/>
-      <c r="F246" s="81"/>
-      <c r="G246" s="82"/>
+      <c r="D246" s="53"/>
+      <c r="E246" s="23"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="25"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C247" s="41" t="s">
+      <c r="C247" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="70"/>
+      <c r="D247" s="27"/>
       <c r="E247" s="2">
         <v>1</v>
       </c>
-      <c r="F247" s="47" t="s">
+      <c r="F247" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="G247" s="48"/>
+      <c r="G247" s="62"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C248" s="43"/>
-      <c r="D248" s="71"/>
+      <c r="C248" s="58"/>
+      <c r="D248" s="63"/>
       <c r="E248" s="3">
         <v>2</v>
       </c>
-      <c r="F248" s="49" t="s">
+      <c r="F248" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="G248" s="50"/>
+      <c r="G248" s="34"/>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C249" s="43"/>
-      <c r="D249" s="71"/>
+      <c r="C249" s="58"/>
+      <c r="D249" s="63"/>
       <c r="E249" s="3">
         <v>3</v>
       </c>
@@ -5708,26 +5708,26 @@
       <c r="G249" s="18"/>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C250" s="43"/>
-      <c r="D250" s="71"/>
+      <c r="C250" s="58"/>
+      <c r="D250" s="63"/>
       <c r="E250" s="3">
         <v>4</v>
       </c>
-      <c r="F250" s="49" t="s">
+      <c r="F250" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="G250" s="50"/>
+      <c r="G250" s="34"/>
     </row>
     <row r="251" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="45"/>
-      <c r="D251" s="72"/>
+      <c r="C251" s="28"/>
+      <c r="D251" s="29"/>
       <c r="E251" s="4">
         <v>5</v>
       </c>
-      <c r="F251" s="53" t="s">
+      <c r="F251" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G251" s="54"/>
+      <c r="G251" s="39"/>
     </row>
     <row r="252" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="253" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5737,121 +5737,121 @@
       <c r="D253" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E253" s="25" t="s">
+      <c r="E253" s="30" t="s">
         <v>262</v>
       </c>
-      <c r="F253" s="26"/>
-      <c r="G253" s="27"/>
+      <c r="F253" s="31"/>
+      <c r="G253" s="32"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C254" s="28" t="s">
+      <c r="C254" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D254" s="29"/>
-      <c r="E254" s="83" t="s">
+      <c r="D254" s="65"/>
+      <c r="E254" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F254" s="65"/>
-      <c r="G254" s="66"/>
+      <c r="F254" s="36"/>
+      <c r="G254" s="37"/>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C255" s="33" t="s">
+      <c r="C255" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D255" s="34"/>
-      <c r="E255" s="23" t="s">
+      <c r="D255" s="48"/>
+      <c r="E255" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F255" s="24"/>
-      <c r="G255" s="35"/>
+      <c r="F255" s="50"/>
+      <c r="G255" s="51"/>
     </row>
     <row r="256" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C256" s="36" t="s">
+      <c r="C256" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D256" s="37"/>
-      <c r="E256" s="76"/>
-      <c r="F256" s="77"/>
-      <c r="G256" s="78"/>
+      <c r="D256" s="53"/>
+      <c r="E256" s="69"/>
+      <c r="F256" s="70"/>
+      <c r="G256" s="71"/>
     </row>
     <row r="257" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C257" s="41" t="s">
+      <c r="C257" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="70"/>
+      <c r="D257" s="27"/>
       <c r="E257" s="2">
         <v>1</v>
       </c>
-      <c r="F257" s="47" t="s">
+      <c r="F257" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G257" s="48"/>
+      <c r="G257" s="62"/>
     </row>
     <row r="258" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C258" s="43"/>
-      <c r="D258" s="71"/>
+      <c r="C258" s="58"/>
+      <c r="D258" s="63"/>
       <c r="E258" s="3">
         <v>2</v>
       </c>
-      <c r="F258" s="49" t="s">
+      <c r="F258" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="G258" s="50"/>
+      <c r="G258" s="34"/>
     </row>
     <row r="259" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C259" s="43"/>
-      <c r="D259" s="71"/>
+      <c r="C259" s="58"/>
+      <c r="D259" s="63"/>
       <c r="E259" s="3">
         <v>3</v>
       </c>
-      <c r="F259" s="49" t="s">
+      <c r="F259" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="G259" s="50"/>
+      <c r="G259" s="34"/>
     </row>
     <row r="260" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C260" s="43"/>
-      <c r="D260" s="71"/>
+      <c r="C260" s="58"/>
+      <c r="D260" s="63"/>
       <c r="E260" s="3">
         <v>4</v>
       </c>
-      <c r="F260" s="49" t="s">
+      <c r="F260" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G260" s="50"/>
+      <c r="G260" s="34"/>
     </row>
     <row r="261" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C261" s="43"/>
-      <c r="D261" s="71"/>
+      <c r="C261" s="58"/>
+      <c r="D261" s="63"/>
       <c r="E261" s="3">
         <v>5</v>
       </c>
-      <c r="F261" s="49" t="s">
+      <c r="F261" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G261" s="50"/>
+      <c r="G261" s="34"/>
     </row>
     <row r="262" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C262" s="43"/>
-      <c r="D262" s="71"/>
+      <c r="C262" s="58"/>
+      <c r="D262" s="63"/>
       <c r="E262" s="3">
         <v>6</v>
       </c>
-      <c r="F262" s="49" t="s">
+      <c r="F262" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G262" s="50"/>
+      <c r="G262" s="34"/>
     </row>
     <row r="263" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C263" s="45"/>
-      <c r="D263" s="72"/>
+      <c r="C263" s="28"/>
+      <c r="D263" s="29"/>
       <c r="E263" s="4">
         <v>7</v>
       </c>
-      <c r="F263" s="53" t="s">
+      <c r="F263" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="G263" s="54"/>
+      <c r="G263" s="39"/>
     </row>
     <row r="264" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="265" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5861,105 +5861,105 @@
       <c r="D265" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E265" s="25" t="s">
+      <c r="E265" s="30" t="s">
         <v>198</v>
       </c>
-      <c r="F265" s="26"/>
-      <c r="G265" s="27"/>
+      <c r="F265" s="31"/>
+      <c r="G265" s="32"/>
     </row>
     <row r="266" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C266" s="28" t="s">
+      <c r="C266" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D266" s="29"/>
-      <c r="E266" s="83" t="s">
+      <c r="D266" s="65"/>
+      <c r="E266" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F266" s="65"/>
-      <c r="G266" s="66"/>
+      <c r="F266" s="36"/>
+      <c r="G266" s="37"/>
     </row>
     <row r="267" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C267" s="33" t="s">
+      <c r="C267" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D267" s="34"/>
-      <c r="E267" s="23" t="s">
+      <c r="D267" s="48"/>
+      <c r="E267" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F267" s="24"/>
-      <c r="G267" s="35"/>
+      <c r="F267" s="50"/>
+      <c r="G267" s="51"/>
     </row>
     <row r="268" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C268" s="36" t="s">
+      <c r="C268" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D268" s="37"/>
-      <c r="E268" s="64" t="s">
+      <c r="D268" s="53"/>
+      <c r="E268" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F268" s="81"/>
-      <c r="G268" s="82"/>
+      <c r="F268" s="24"/>
+      <c r="G268" s="25"/>
     </row>
     <row r="269" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C269" s="41" t="s">
+      <c r="C269" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="70"/>
+      <c r="D269" s="27"/>
       <c r="E269" s="2">
         <v>1</v>
       </c>
-      <c r="F269" s="47" t="s">
+      <c r="F269" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G269" s="48"/>
+      <c r="G269" s="62"/>
     </row>
     <row r="270" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C270" s="43"/>
-      <c r="D270" s="71"/>
+      <c r="C270" s="58"/>
+      <c r="D270" s="63"/>
       <c r="E270" s="3">
         <v>2</v>
       </c>
-      <c r="F270" s="49" t="s">
+      <c r="F270" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="G270" s="50"/>
+      <c r="G270" s="34"/>
     </row>
     <row r="271" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C271" s="43"/>
-      <c r="D271" s="71"/>
+      <c r="C271" s="58"/>
+      <c r="D271" s="63"/>
       <c r="E271" s="3">
         <v>3</v>
       </c>
-      <c r="F271" s="49" t="s">
+      <c r="F271" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="G271" s="50"/>
+      <c r="G271" s="34"/>
     </row>
     <row r="272" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C272" s="43"/>
-      <c r="D272" s="71"/>
+      <c r="C272" s="58"/>
+      <c r="D272" s="63"/>
       <c r="E272" s="3">
         <v>4</v>
       </c>
-      <c r="F272" s="49" t="s">
+      <c r="F272" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="G272" s="50"/>
+      <c r="G272" s="34"/>
     </row>
     <row r="273" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C273" s="43"/>
-      <c r="D273" s="71"/>
+      <c r="C273" s="58"/>
+      <c r="D273" s="63"/>
       <c r="E273" s="3">
         <v>5</v>
       </c>
-      <c r="F273" s="49" t="s">
+      <c r="F273" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="G273" s="50"/>
+      <c r="G273" s="34"/>
     </row>
     <row r="274" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C274" s="43"/>
-      <c r="D274" s="71"/>
+      <c r="C274" s="58"/>
+      <c r="D274" s="63"/>
       <c r="E274" s="3">
         <v>6</v>
       </c>
@@ -5969,15 +5969,15 @@
       <c r="G274" s="18"/>
     </row>
     <row r="275" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C275" s="45"/>
-      <c r="D275" s="72"/>
+      <c r="C275" s="28"/>
+      <c r="D275" s="29"/>
       <c r="E275" s="4">
         <v>7</v>
       </c>
-      <c r="F275" s="53" t="s">
+      <c r="F275" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="G275" s="54"/>
+      <c r="G275" s="39"/>
     </row>
     <row r="276" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="277" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5987,101 +5987,101 @@
       <c r="D277" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E277" s="25" t="s">
+      <c r="E277" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="F277" s="26"/>
-      <c r="G277" s="27"/>
+      <c r="F277" s="31"/>
+      <c r="G277" s="32"/>
     </row>
     <row r="278" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C278" s="28" t="s">
+      <c r="C278" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D278" s="29"/>
-      <c r="E278" s="83" t="s">
+      <c r="D278" s="65"/>
+      <c r="E278" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="F278" s="65"/>
-      <c r="G278" s="66"/>
+      <c r="F278" s="36"/>
+      <c r="G278" s="37"/>
     </row>
     <row r="279" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C279" s="33" t="s">
+      <c r="C279" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D279" s="34"/>
-      <c r="E279" s="23" t="s">
+      <c r="D279" s="48"/>
+      <c r="E279" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F279" s="24"/>
-      <c r="G279" s="35"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="51"/>
     </row>
     <row r="280" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D280" s="37"/>
-      <c r="E280" s="76" t="s">
+      <c r="D280" s="53"/>
+      <c r="E280" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="F280" s="77"/>
-      <c r="G280" s="78"/>
+      <c r="F280" s="70"/>
+      <c r="G280" s="71"/>
     </row>
     <row r="281" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C281" s="41" t="s">
+      <c r="C281" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="70"/>
+      <c r="D281" s="27"/>
       <c r="E281" s="2">
         <v>1</v>
       </c>
-      <c r="F281" s="47" t="s">
+      <c r="F281" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="G281" s="48"/>
+      <c r="G281" s="62"/>
     </row>
     <row r="282" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C282" s="43"/>
-      <c r="D282" s="71"/>
+      <c r="C282" s="58"/>
+      <c r="D282" s="63"/>
       <c r="E282" s="3">
         <v>2</v>
       </c>
-      <c r="F282" s="49" t="s">
+      <c r="F282" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G282" s="50"/>
+      <c r="G282" s="34"/>
     </row>
     <row r="283" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C283" s="43"/>
-      <c r="D283" s="71"/>
+      <c r="C283" s="58"/>
+      <c r="D283" s="63"/>
       <c r="E283" s="3">
         <v>3</v>
       </c>
-      <c r="F283" s="49" t="s">
+      <c r="F283" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="G283" s="50"/>
+      <c r="G283" s="34"/>
     </row>
     <row r="284" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C284" s="43"/>
-      <c r="D284" s="71"/>
+      <c r="C284" s="58"/>
+      <c r="D284" s="63"/>
       <c r="E284" s="3">
         <v>4</v>
       </c>
-      <c r="F284" s="49" t="s">
+      <c r="F284" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G284" s="50"/>
+      <c r="G284" s="34"/>
     </row>
     <row r="285" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C285" s="45"/>
-      <c r="D285" s="72"/>
+      <c r="C285" s="28"/>
+      <c r="D285" s="29"/>
       <c r="E285" s="4">
         <v>5</v>
       </c>
-      <c r="F285" s="53" t="s">
+      <c r="F285" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="G285" s="54"/>
+      <c r="G285" s="39"/>
     </row>
     <row r="286" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="287" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6091,121 +6091,121 @@
       <c r="D287" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E287" s="25" t="s">
+      <c r="E287" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="F287" s="26"/>
-      <c r="G287" s="27"/>
+      <c r="F287" s="31"/>
+      <c r="G287" s="32"/>
     </row>
     <row r="288" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C288" s="28" t="s">
+      <c r="C288" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D288" s="29"/>
-      <c r="E288" s="83" t="s">
+      <c r="D288" s="65"/>
+      <c r="E288" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F288" s="65"/>
-      <c r="G288" s="66"/>
+      <c r="F288" s="36"/>
+      <c r="G288" s="37"/>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C289" s="33" t="s">
+      <c r="C289" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D289" s="34"/>
-      <c r="E289" s="23" t="s">
+      <c r="D289" s="48"/>
+      <c r="E289" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="F289" s="24"/>
-      <c r="G289" s="35"/>
+      <c r="F289" s="50"/>
+      <c r="G289" s="51"/>
     </row>
     <row r="290" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C290" s="36" t="s">
+      <c r="C290" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D290" s="37"/>
-      <c r="E290" s="64"/>
-      <c r="F290" s="81"/>
-      <c r="G290" s="82"/>
+      <c r="D290" s="53"/>
+      <c r="E290" s="23"/>
+      <c r="F290" s="24"/>
+      <c r="G290" s="25"/>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C291" s="41" t="s">
+      <c r="C291" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D291" s="70"/>
+      <c r="D291" s="27"/>
       <c r="E291" s="2">
         <v>1</v>
       </c>
-      <c r="F291" s="47" t="s">
+      <c r="F291" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="G291" s="48"/>
+      <c r="G291" s="62"/>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C292" s="43"/>
-      <c r="D292" s="71"/>
+      <c r="C292" s="58"/>
+      <c r="D292" s="63"/>
       <c r="E292" s="3">
         <v>2</v>
       </c>
-      <c r="F292" s="49" t="s">
+      <c r="F292" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="G292" s="50"/>
+      <c r="G292" s="34"/>
     </row>
     <row r="293" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C293" s="43"/>
-      <c r="D293" s="71"/>
+      <c r="C293" s="58"/>
+      <c r="D293" s="63"/>
       <c r="E293" s="3">
         <v>3</v>
       </c>
-      <c r="F293" s="79" t="s">
+      <c r="F293" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="G293" s="80"/>
+      <c r="G293" s="73"/>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C294" s="43"/>
-      <c r="D294" s="71"/>
+      <c r="C294" s="58"/>
+      <c r="D294" s="63"/>
       <c r="E294" s="3">
         <v>4</v>
       </c>
-      <c r="F294" s="49" t="s">
+      <c r="F294" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G294" s="50"/>
+      <c r="G294" s="34"/>
     </row>
     <row r="295" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C295" s="43"/>
-      <c r="D295" s="71"/>
+      <c r="C295" s="58"/>
+      <c r="D295" s="63"/>
       <c r="E295" s="3">
         <v>5</v>
       </c>
-      <c r="F295" s="79" t="s">
+      <c r="F295" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="G295" s="80"/>
+      <c r="G295" s="73"/>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C296" s="43"/>
-      <c r="D296" s="71"/>
+      <c r="C296" s="58"/>
+      <c r="D296" s="63"/>
       <c r="E296" s="3">
         <v>6</v>
       </c>
-      <c r="F296" s="49" t="s">
+      <c r="F296" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="G296" s="50"/>
+      <c r="G296" s="34"/>
     </row>
     <row r="297" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C297" s="45"/>
-      <c r="D297" s="72"/>
+      <c r="C297" s="28"/>
+      <c r="D297" s="29"/>
       <c r="E297" s="4">
         <v>7</v>
       </c>
-      <c r="F297" s="53" t="s">
+      <c r="F297" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G297" s="54"/>
+      <c r="G297" s="39"/>
     </row>
     <row r="298" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="299" spans="3:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6215,121 +6215,121 @@
       <c r="D299" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E299" s="25" t="s">
+      <c r="E299" s="30" t="s">
         <v>305</v>
       </c>
-      <c r="F299" s="26"/>
-      <c r="G299" s="27"/>
+      <c r="F299" s="31"/>
+      <c r="G299" s="32"/>
     </row>
     <row r="300" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C300" s="28" t="s">
+      <c r="C300" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D300" s="29"/>
-      <c r="E300" s="83" t="s">
+      <c r="D300" s="65"/>
+      <c r="E300" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F300" s="65"/>
-      <c r="G300" s="66"/>
+      <c r="F300" s="36"/>
+      <c r="G300" s="37"/>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C301" s="33" t="s">
+      <c r="C301" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D301" s="34"/>
-      <c r="E301" s="23" t="s">
+      <c r="D301" s="48"/>
+      <c r="E301" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="F301" s="24"/>
-      <c r="G301" s="35"/>
+      <c r="F301" s="50"/>
+      <c r="G301" s="51"/>
     </row>
     <row r="302" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C302" s="36" t="s">
+      <c r="C302" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D302" s="37"/>
-      <c r="E302" s="64"/>
-      <c r="F302" s="81"/>
-      <c r="G302" s="82"/>
+      <c r="D302" s="53"/>
+      <c r="E302" s="23"/>
+      <c r="F302" s="24"/>
+      <c r="G302" s="25"/>
     </row>
     <row r="303" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C303" s="41" t="s">
+      <c r="C303" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D303" s="70"/>
+      <c r="D303" s="27"/>
       <c r="E303" s="2">
         <v>1</v>
       </c>
-      <c r="F303" s="47" t="s">
+      <c r="F303" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="G303" s="48"/>
+      <c r="G303" s="62"/>
     </row>
     <row r="304" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C304" s="43"/>
-      <c r="D304" s="71"/>
+      <c r="C304" s="58"/>
+      <c r="D304" s="63"/>
       <c r="E304" s="3">
         <v>2</v>
       </c>
-      <c r="F304" s="49" t="s">
+      <c r="F304" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="G304" s="50"/>
+      <c r="G304" s="34"/>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C305" s="43"/>
-      <c r="D305" s="71"/>
+      <c r="C305" s="58"/>
+      <c r="D305" s="63"/>
       <c r="E305" s="3">
         <v>3</v>
       </c>
-      <c r="F305" s="79" t="s">
+      <c r="F305" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="G305" s="80"/>
+      <c r="G305" s="73"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C306" s="43"/>
-      <c r="D306" s="71"/>
+      <c r="C306" s="58"/>
+      <c r="D306" s="63"/>
       <c r="E306" s="3">
         <v>4</v>
       </c>
-      <c r="F306" s="49" t="s">
+      <c r="F306" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G306" s="50"/>
+      <c r="G306" s="34"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C307" s="43"/>
-      <c r="D307" s="71"/>
+      <c r="C307" s="58"/>
+      <c r="D307" s="63"/>
       <c r="E307" s="3">
         <v>5</v>
       </c>
-      <c r="F307" s="79" t="s">
+      <c r="F307" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="G307" s="80"/>
+      <c r="G307" s="73"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C308" s="43"/>
-      <c r="D308" s="71"/>
+      <c r="C308" s="58"/>
+      <c r="D308" s="63"/>
       <c r="E308" s="3">
         <v>6</v>
       </c>
-      <c r="F308" s="49" t="s">
+      <c r="F308" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="G308" s="50"/>
+      <c r="G308" s="34"/>
     </row>
     <row r="309" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C309" s="45"/>
-      <c r="D309" s="72"/>
+      <c r="C309" s="28"/>
+      <c r="D309" s="29"/>
       <c r="E309" s="4">
         <v>7</v>
       </c>
-      <c r="F309" s="53" t="s">
+      <c r="F309" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="G309" s="54"/>
+      <c r="G309" s="39"/>
     </row>
     <row r="310" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="311" spans="2:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6339,123 +6339,123 @@
       <c r="C311" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="D311" s="85" t="s">
+      <c r="D311" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="E311" s="86"/>
-      <c r="F311" s="87"/>
+      <c r="E311" s="98"/>
+      <c r="F311" s="99"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B312" s="28" t="s">
+      <c r="B312" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C312" s="29"/>
-      <c r="D312" s="83" t="s">
+      <c r="C312" s="65"/>
+      <c r="D312" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="E312" s="65"/>
-      <c r="F312" s="66"/>
+      <c r="E312" s="36"/>
+      <c r="F312" s="37"/>
     </row>
     <row r="313" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="33" t="s">
+      <c r="B313" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C313" s="34"/>
-      <c r="D313" s="84" t="s">
+      <c r="C313" s="48"/>
+      <c r="D313" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E313" s="24"/>
-      <c r="F313" s="35"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="51"/>
     </row>
     <row r="314" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="36" t="s">
+      <c r="B314" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C314" s="37"/>
-      <c r="D314" s="76" t="s">
+      <c r="C314" s="53"/>
+      <c r="D314" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E314" s="77"/>
-      <c r="F314" s="78"/>
+      <c r="E314" s="70"/>
+      <c r="F314" s="71"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B315" s="41" t="s">
+      <c r="B315" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C315" s="42"/>
+      <c r="C315" s="57"/>
       <c r="D315" s="2">
         <v>1</v>
       </c>
-      <c r="E315" s="47" t="s">
+      <c r="E315" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="F315" s="48"/>
+      <c r="F315" s="62"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B316" s="43"/>
-      <c r="C316" s="44"/>
+      <c r="B316" s="58"/>
+      <c r="C316" s="59"/>
       <c r="D316" s="3">
         <v>2</v>
       </c>
-      <c r="E316" s="49" t="s">
+      <c r="E316" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="F316" s="50"/>
+      <c r="F316" s="34"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B317" s="43"/>
-      <c r="C317" s="44"/>
+      <c r="B317" s="58"/>
+      <c r="C317" s="59"/>
       <c r="D317" s="3">
         <v>3</v>
       </c>
-      <c r="E317" s="79" t="s">
+      <c r="E317" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="F317" s="80"/>
+      <c r="F317" s="73"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B318" s="43"/>
-      <c r="C318" s="44"/>
+      <c r="B318" s="58"/>
+      <c r="C318" s="59"/>
       <c r="D318" s="3">
         <v>4</v>
       </c>
-      <c r="E318" s="49" t="s">
+      <c r="E318" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="F318" s="50"/>
+      <c r="F318" s="34"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B319" s="43"/>
-      <c r="C319" s="44"/>
+      <c r="B319" s="58"/>
+      <c r="C319" s="59"/>
       <c r="D319" s="3">
         <v>5</v>
       </c>
-      <c r="E319" s="79" t="s">
+      <c r="E319" s="72" t="s">
         <v>317</v>
       </c>
-      <c r="F319" s="80"/>
+      <c r="F319" s="73"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B320" s="43"/>
-      <c r="C320" s="44"/>
+      <c r="B320" s="58"/>
+      <c r="C320" s="59"/>
       <c r="D320" s="3">
         <v>6</v>
       </c>
-      <c r="E320" s="49" t="s">
+      <c r="E320" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="F320" s="50"/>
+      <c r="F320" s="34"/>
     </row>
     <row r="321" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B321" s="45"/>
-      <c r="C321" s="46"/>
+      <c r="B321" s="28"/>
+      <c r="C321" s="60"/>
       <c r="D321" s="4">
         <v>7</v>
       </c>
-      <c r="E321" s="53" t="s">
+      <c r="E321" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="F321" s="54"/>
+      <c r="F321" s="39"/>
     </row>
     <row r="322" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="323" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6465,101 +6465,101 @@
       <c r="C323" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="D323" s="25" t="s">
+      <c r="D323" s="30" t="s">
         <v>199</v>
       </c>
-      <c r="E323" s="26"/>
-      <c r="F323" s="27"/>
+      <c r="E323" s="31"/>
+      <c r="F323" s="32"/>
     </row>
     <row r="324" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B324" s="28" t="s">
+      <c r="B324" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C324" s="29"/>
-      <c r="D324" s="30" t="s">
+      <c r="C324" s="65"/>
+      <c r="D324" s="44" t="s">
         <v>134</v>
       </c>
-      <c r="E324" s="31"/>
-      <c r="F324" s="32"/>
+      <c r="E324" s="45"/>
+      <c r="F324" s="46"/>
     </row>
     <row r="325" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="33" t="s">
+      <c r="B325" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C325" s="34"/>
-      <c r="D325" s="84" t="s">
+      <c r="C325" s="48"/>
+      <c r="D325" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="E325" s="24"/>
-      <c r="F325" s="35"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="51"/>
     </row>
     <row r="326" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B326" s="36" t="s">
+      <c r="B326" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C326" s="37"/>
-      <c r="D326" s="76" t="s">
+      <c r="C326" s="53"/>
+      <c r="D326" s="69" t="s">
         <v>200</v>
       </c>
-      <c r="E326" s="77"/>
-      <c r="F326" s="78"/>
+      <c r="E326" s="70"/>
+      <c r="F326" s="71"/>
     </row>
     <row r="327" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B327" s="41" t="s">
+      <c r="B327" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C327" s="42"/>
+      <c r="C327" s="57"/>
       <c r="D327" s="2">
         <v>1</v>
       </c>
-      <c r="E327" s="47" t="s">
+      <c r="E327" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="F327" s="48"/>
+      <c r="F327" s="62"/>
     </row>
     <row r="328" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B328" s="43"/>
-      <c r="C328" s="44"/>
+      <c r="B328" s="58"/>
+      <c r="C328" s="59"/>
       <c r="D328" s="3">
         <v>2</v>
       </c>
-      <c r="E328" s="49" t="s">
+      <c r="E328" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="F328" s="50"/>
+      <c r="F328" s="34"/>
     </row>
     <row r="329" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B329" s="43"/>
-      <c r="C329" s="44"/>
+      <c r="B329" s="58"/>
+      <c r="C329" s="59"/>
       <c r="D329" s="3">
         <v>3</v>
       </c>
-      <c r="E329" s="49" t="s">
+      <c r="E329" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="F329" s="50"/>
+      <c r="F329" s="34"/>
     </row>
     <row r="330" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B330" s="43"/>
-      <c r="C330" s="44"/>
+      <c r="B330" s="58"/>
+      <c r="C330" s="59"/>
       <c r="D330" s="3">
         <v>4</v>
       </c>
-      <c r="E330" s="49" t="s">
+      <c r="E330" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="F330" s="50"/>
+      <c r="F330" s="34"/>
     </row>
     <row r="331" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="45"/>
-      <c r="C331" s="46"/>
+      <c r="B331" s="28"/>
+      <c r="C331" s="60"/>
       <c r="D331" s="4">
         <v>5</v>
       </c>
-      <c r="E331" s="53" t="s">
+      <c r="E331" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="F331" s="54"/>
+      <c r="F331" s="39"/>
     </row>
     <row r="332" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="333" spans="2:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6569,121 +6569,121 @@
       <c r="C333" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="D333" s="61" t="s">
+      <c r="D333" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="E333" s="62"/>
-      <c r="F333" s="63"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="43"/>
     </row>
     <row r="334" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B334" s="33" t="s">
+      <c r="B334" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C334" s="34"/>
-      <c r="D334" s="83" t="s">
+      <c r="C334" s="48"/>
+      <c r="D334" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="E334" s="65"/>
-      <c r="F334" s="66"/>
+      <c r="E334" s="36"/>
+      <c r="F334" s="37"/>
     </row>
     <row r="335" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B335" s="33" t="s">
+      <c r="B335" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C335" s="34"/>
-      <c r="D335" s="64" t="s">
+      <c r="C335" s="48"/>
+      <c r="D335" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E335" s="81"/>
-      <c r="F335" s="82"/>
+      <c r="E335" s="24"/>
+      <c r="F335" s="25"/>
     </row>
     <row r="336" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B336" s="36" t="s">
+      <c r="B336" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C336" s="37"/>
-      <c r="D336" s="58" t="s">
+      <c r="C336" s="53"/>
+      <c r="D336" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="E336" s="59"/>
-      <c r="F336" s="60"/>
+      <c r="E336" s="75"/>
+      <c r="F336" s="76"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B337" s="41" t="s">
+      <c r="B337" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C337" s="70"/>
+      <c r="C337" s="27"/>
       <c r="D337" s="2">
         <v>1</v>
       </c>
-      <c r="E337" s="47" t="s">
+      <c r="E337" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="F337" s="48"/>
+      <c r="F337" s="62"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B338" s="43"/>
-      <c r="C338" s="71"/>
+      <c r="B338" s="58"/>
+      <c r="C338" s="63"/>
       <c r="D338" s="3">
         <v>2</v>
       </c>
-      <c r="E338" s="49" t="s">
+      <c r="E338" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="F338" s="50"/>
+      <c r="F338" s="34"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B339" s="43"/>
-      <c r="C339" s="71"/>
+      <c r="B339" s="58"/>
+      <c r="C339" s="63"/>
       <c r="D339" s="3">
         <v>3</v>
       </c>
-      <c r="E339" s="49" t="s">
+      <c r="E339" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F339" s="50"/>
+      <c r="F339" s="34"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B340" s="43"/>
-      <c r="C340" s="71"/>
+      <c r="B340" s="58"/>
+      <c r="C340" s="63"/>
       <c r="D340" s="3">
         <v>4</v>
       </c>
-      <c r="E340" s="49" t="s">
+      <c r="E340" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="F340" s="50"/>
+      <c r="F340" s="34"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B341" s="43"/>
-      <c r="C341" s="71"/>
+      <c r="B341" s="58"/>
+      <c r="C341" s="63"/>
       <c r="D341" s="3">
         <v>5</v>
       </c>
-      <c r="E341" s="49" t="s">
+      <c r="E341" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="F341" s="50"/>
+      <c r="F341" s="34"/>
     </row>
     <row r="342" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B342" s="45"/>
-      <c r="C342" s="72"/>
+      <c r="B342" s="28"/>
+      <c r="C342" s="29"/>
       <c r="D342" s="4">
         <v>6</v>
       </c>
-      <c r="E342" s="53" t="s">
+      <c r="E342" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F342" s="54"/>
+      <c r="F342" s="39"/>
     </row>
     <row r="344" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="98" t="s">
+      <c r="B344" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="C344" s="98"/>
-      <c r="D344" s="98"/>
-      <c r="E344" s="98"/>
-      <c r="F344" s="98"/>
+      <c r="C344" s="40"/>
+      <c r="D344" s="40"/>
+      <c r="E344" s="40"/>
+      <c r="F344" s="40"/>
     </row>
     <row r="345" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
@@ -6696,121 +6696,121 @@
       <c r="D346" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E346" s="25" t="s">
+      <c r="E346" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="F346" s="26"/>
-      <c r="G346" s="27"/>
+      <c r="F346" s="31"/>
+      <c r="G346" s="32"/>
     </row>
     <row r="347" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="20"/>
-      <c r="C347" s="28" t="s">
+      <c r="C347" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D347" s="29"/>
-      <c r="E347" s="30" t="s">
+      <c r="D347" s="65"/>
+      <c r="E347" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F347" s="31"/>
-      <c r="G347" s="32"/>
+      <c r="F347" s="45"/>
+      <c r="G347" s="46"/>
     </row>
     <row r="348" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="20"/>
-      <c r="C348" s="33" t="s">
+      <c r="C348" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D348" s="34"/>
-      <c r="E348" s="23" t="s">
+      <c r="D348" s="48"/>
+      <c r="E348" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F348" s="24"/>
-      <c r="G348" s="35"/>
+      <c r="F348" s="50"/>
+      <c r="G348" s="51"/>
     </row>
     <row r="349" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
-      <c r="C349" s="36" t="s">
+      <c r="C349" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D349" s="37"/>
-      <c r="E349" s="76" t="s">
+      <c r="D349" s="53"/>
+      <c r="E349" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F349" s="77"/>
-      <c r="G349" s="78"/>
+      <c r="F349" s="70"/>
+      <c r="G349" s="71"/>
     </row>
     <row r="350" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="20"/>
-      <c r="C350" s="41" t="s">
+      <c r="C350" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D350" s="42"/>
+      <c r="D350" s="57"/>
       <c r="E350" s="2">
         <v>1</v>
       </c>
-      <c r="F350" s="47" t="s">
+      <c r="F350" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="G350" s="48"/>
+      <c r="G350" s="62"/>
     </row>
     <row r="351" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="20"/>
-      <c r="C351" s="43"/>
-      <c r="D351" s="44"/>
+      <c r="C351" s="58"/>
+      <c r="D351" s="59"/>
       <c r="E351" s="3">
         <v>2</v>
       </c>
-      <c r="F351" s="49" t="s">
+      <c r="F351" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G351" s="50"/>
+      <c r="G351" s="34"/>
     </row>
     <row r="352" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="20"/>
-      <c r="C352" s="43"/>
-      <c r="D352" s="44"/>
+      <c r="C352" s="58"/>
+      <c r="D352" s="59"/>
       <c r="E352" s="3">
         <v>3</v>
       </c>
-      <c r="F352" s="49" t="s">
+      <c r="F352" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G352" s="50"/>
+      <c r="G352" s="34"/>
     </row>
     <row r="353" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="20"/>
-      <c r="C353" s="43"/>
-      <c r="D353" s="44"/>
+      <c r="C353" s="58"/>
+      <c r="D353" s="59"/>
       <c r="E353" s="3">
         <v>4</v>
       </c>
-      <c r="F353" s="49" t="s">
+      <c r="F353" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G353" s="50"/>
+      <c r="G353" s="34"/>
     </row>
     <row r="354" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="20"/>
-      <c r="C354" s="43"/>
-      <c r="D354" s="44"/>
+      <c r="C354" s="58"/>
+      <c r="D354" s="59"/>
       <c r="E354" s="3">
         <v>5</v>
       </c>
-      <c r="F354" s="49" t="s">
+      <c r="F354" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G354" s="50"/>
+      <c r="G354" s="34"/>
     </row>
     <row r="355" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
-      <c r="C355" s="45"/>
-      <c r="D355" s="46"/>
+      <c r="C355" s="28"/>
+      <c r="D355" s="60"/>
       <c r="E355" s="4">
         <v>6</v>
       </c>
-      <c r="F355" s="53" t="s">
+      <c r="F355" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G355" s="54"/>
+      <c r="G355" s="39"/>
     </row>
     <row r="356" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
@@ -6828,131 +6828,131 @@
       <c r="D357" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="E357" s="25" t="s">
+      <c r="E357" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="F357" s="26"/>
-      <c r="G357" s="27"/>
+      <c r="F357" s="31"/>
+      <c r="G357" s="32"/>
     </row>
     <row r="358" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="20"/>
-      <c r="C358" s="33" t="s">
+      <c r="C358" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D358" s="34"/>
-      <c r="E358" s="64" t="s">
+      <c r="D358" s="48"/>
+      <c r="E358" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F358" s="65"/>
-      <c r="G358" s="66"/>
+      <c r="F358" s="36"/>
+      <c r="G358" s="37"/>
     </row>
     <row r="359" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="20"/>
-      <c r="C359" s="33" t="s">
+      <c r="C359" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D359" s="34"/>
-      <c r="E359" s="23" t="s">
+      <c r="D359" s="48"/>
+      <c r="E359" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F359" s="24"/>
-      <c r="G359" s="35"/>
+      <c r="F359" s="50"/>
+      <c r="G359" s="51"/>
     </row>
     <row r="360" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
-      <c r="C360" s="36" t="s">
+      <c r="C360" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D360" s="37"/>
-      <c r="E360" s="67"/>
-      <c r="F360" s="68"/>
-      <c r="G360" s="69"/>
+      <c r="D360" s="53"/>
+      <c r="E360" s="89"/>
+      <c r="F360" s="90"/>
+      <c r="G360" s="91"/>
     </row>
     <row r="361" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="20"/>
-      <c r="C361" s="41" t="s">
+      <c r="C361" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D361" s="70"/>
+      <c r="D361" s="27"/>
       <c r="E361" s="2">
         <v>1</v>
       </c>
-      <c r="F361" s="47" t="s">
+      <c r="F361" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G361" s="48"/>
+      <c r="G361" s="62"/>
     </row>
     <row r="362" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="20"/>
-      <c r="C362" s="43"/>
-      <c r="D362" s="71"/>
+      <c r="C362" s="58"/>
+      <c r="D362" s="63"/>
       <c r="E362" s="3">
         <v>2</v>
       </c>
-      <c r="F362" s="49" t="s">
+      <c r="F362" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G362" s="50"/>
+      <c r="G362" s="34"/>
     </row>
     <row r="363" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="20"/>
-      <c r="C363" s="43"/>
-      <c r="D363" s="71"/>
+      <c r="C363" s="58"/>
+      <c r="D363" s="63"/>
       <c r="E363" s="3">
         <v>3</v>
       </c>
-      <c r="F363" s="49" t="s">
+      <c r="F363" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G363" s="50"/>
+      <c r="G363" s="34"/>
     </row>
     <row r="364" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="20"/>
-      <c r="C364" s="43"/>
-      <c r="D364" s="71"/>
+      <c r="C364" s="58"/>
+      <c r="D364" s="63"/>
       <c r="E364" s="3">
         <v>4</v>
       </c>
-      <c r="F364" s="49" t="s">
+      <c r="F364" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G364" s="50"/>
+      <c r="G364" s="34"/>
     </row>
     <row r="365" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="20"/>
-      <c r="C365" s="43"/>
-      <c r="D365" s="71"/>
+      <c r="C365" s="58"/>
+      <c r="D365" s="63"/>
       <c r="E365" s="3">
         <v>5</v>
       </c>
-      <c r="F365" s="49" t="s">
+      <c r="F365" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G365" s="50"/>
+      <c r="G365" s="34"/>
     </row>
     <row r="366" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="20"/>
-      <c r="C366" s="43"/>
-      <c r="D366" s="71"/>
+      <c r="C366" s="58"/>
+      <c r="D366" s="63"/>
       <c r="E366" s="3">
         <v>6</v>
       </c>
-      <c r="F366" s="49" t="s">
+      <c r="F366" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G366" s="50"/>
+      <c r="G366" s="34"/>
     </row>
     <row r="367" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
-      <c r="C367" s="45"/>
-      <c r="D367" s="72"/>
+      <c r="C367" s="28"/>
+      <c r="D367" s="29"/>
       <c r="E367" s="4">
         <v>7</v>
       </c>
-      <c r="F367" s="53" t="s">
+      <c r="F367" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G367" s="54"/>
+      <c r="G367" s="39"/>
     </row>
     <row r="368" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
@@ -6970,121 +6970,121 @@
       <c r="D369" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E369" s="25" t="s">
+      <c r="E369" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="F369" s="26"/>
-      <c r="G369" s="27"/>
+      <c r="F369" s="31"/>
+      <c r="G369" s="32"/>
     </row>
     <row r="370" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="20"/>
-      <c r="C370" s="28" t="s">
+      <c r="C370" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D370" s="29"/>
-      <c r="E370" s="30" t="s">
+      <c r="D370" s="65"/>
+      <c r="E370" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F370" s="31"/>
-      <c r="G370" s="32"/>
+      <c r="F370" s="45"/>
+      <c r="G370" s="46"/>
     </row>
     <row r="371" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="20"/>
-      <c r="C371" s="33" t="s">
+      <c r="C371" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D371" s="34"/>
-      <c r="E371" s="23" t="s">
+      <c r="D371" s="48"/>
+      <c r="E371" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F371" s="24"/>
-      <c r="G371" s="35"/>
+      <c r="F371" s="50"/>
+      <c r="G371" s="51"/>
     </row>
     <row r="372" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
-      <c r="C372" s="36" t="s">
+      <c r="C372" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D372" s="37"/>
-      <c r="E372" s="76" t="s">
+      <c r="D372" s="53"/>
+      <c r="E372" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="F372" s="77"/>
-      <c r="G372" s="78"/>
+      <c r="F372" s="70"/>
+      <c r="G372" s="71"/>
     </row>
     <row r="373" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="20"/>
-      <c r="C373" s="41" t="s">
+      <c r="C373" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D373" s="42"/>
+      <c r="D373" s="57"/>
       <c r="E373" s="2">
         <v>1</v>
       </c>
-      <c r="F373" s="47" t="s">
+      <c r="F373" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="G373" s="48"/>
+      <c r="G373" s="62"/>
     </row>
     <row r="374" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="20"/>
-      <c r="C374" s="43"/>
-      <c r="D374" s="44"/>
+      <c r="C374" s="58"/>
+      <c r="D374" s="59"/>
       <c r="E374" s="3">
         <v>2</v>
       </c>
-      <c r="F374" s="49" t="s">
+      <c r="F374" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="G374" s="50"/>
+      <c r="G374" s="34"/>
     </row>
     <row r="375" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="20"/>
-      <c r="C375" s="43"/>
-      <c r="D375" s="44"/>
+      <c r="C375" s="58"/>
+      <c r="D375" s="59"/>
       <c r="E375" s="3">
         <v>3</v>
       </c>
-      <c r="F375" s="49" t="s">
+      <c r="F375" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G375" s="50"/>
+      <c r="G375" s="34"/>
     </row>
     <row r="376" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="20"/>
-      <c r="C376" s="43"/>
-      <c r="D376" s="44"/>
+      <c r="C376" s="58"/>
+      <c r="D376" s="59"/>
       <c r="E376" s="3">
         <v>4</v>
       </c>
-      <c r="F376" s="49" t="s">
+      <c r="F376" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G376" s="50"/>
+      <c r="G376" s="34"/>
     </row>
     <row r="377" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="20"/>
-      <c r="C377" s="43"/>
-      <c r="D377" s="44"/>
+      <c r="C377" s="58"/>
+      <c r="D377" s="59"/>
       <c r="E377" s="3">
         <v>5</v>
       </c>
-      <c r="F377" s="49" t="s">
+      <c r="F377" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G377" s="50"/>
+      <c r="G377" s="34"/>
     </row>
     <row r="378" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
-      <c r="C378" s="45"/>
-      <c r="D378" s="46"/>
+      <c r="C378" s="28"/>
+      <c r="D378" s="60"/>
       <c r="E378" s="4">
         <v>6</v>
       </c>
-      <c r="F378" s="53" t="s">
+      <c r="F378" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G378" s="54"/>
+      <c r="G378" s="39"/>
     </row>
     <row r="379" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
@@ -7102,131 +7102,131 @@
       <c r="D380" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="E380" s="25" t="s">
+      <c r="E380" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F380" s="26"/>
-      <c r="G380" s="27"/>
+      <c r="F380" s="31"/>
+      <c r="G380" s="32"/>
     </row>
     <row r="381" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="20"/>
-      <c r="C381" s="33" t="s">
+      <c r="C381" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D381" s="34"/>
-      <c r="E381" s="64" t="s">
+      <c r="D381" s="48"/>
+      <c r="E381" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F381" s="65"/>
-      <c r="G381" s="66"/>
+      <c r="F381" s="36"/>
+      <c r="G381" s="37"/>
     </row>
     <row r="382" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="20"/>
-      <c r="C382" s="33" t="s">
+      <c r="C382" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D382" s="34"/>
-      <c r="E382" s="23" t="s">
+      <c r="D382" s="48"/>
+      <c r="E382" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F382" s="24"/>
-      <c r="G382" s="35"/>
+      <c r="F382" s="50"/>
+      <c r="G382" s="51"/>
     </row>
     <row r="383" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
-      <c r="C383" s="36" t="s">
+      <c r="C383" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D383" s="37"/>
-      <c r="E383" s="67"/>
-      <c r="F383" s="68"/>
-      <c r="G383" s="69"/>
+      <c r="D383" s="53"/>
+      <c r="E383" s="89"/>
+      <c r="F383" s="90"/>
+      <c r="G383" s="91"/>
     </row>
     <row r="384" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="20"/>
-      <c r="C384" s="41" t="s">
+      <c r="C384" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D384" s="70"/>
+      <c r="D384" s="27"/>
       <c r="E384" s="2">
         <v>1</v>
       </c>
-      <c r="F384" s="47" t="s">
+      <c r="F384" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G384" s="48"/>
+      <c r="G384" s="62"/>
     </row>
     <row r="385" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="20"/>
-      <c r="C385" s="43"/>
-      <c r="D385" s="71"/>
+      <c r="C385" s="58"/>
+      <c r="D385" s="63"/>
       <c r="E385" s="3">
         <v>2</v>
       </c>
-      <c r="F385" s="49" t="s">
+      <c r="F385" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G385" s="50"/>
+      <c r="G385" s="34"/>
     </row>
     <row r="386" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="20"/>
-      <c r="C386" s="43"/>
-      <c r="D386" s="71"/>
+      <c r="C386" s="58"/>
+      <c r="D386" s="63"/>
       <c r="E386" s="3">
         <v>3</v>
       </c>
-      <c r="F386" s="49" t="s">
+      <c r="F386" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G386" s="50"/>
+      <c r="G386" s="34"/>
     </row>
     <row r="387" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="20"/>
-      <c r="C387" s="43"/>
-      <c r="D387" s="71"/>
+      <c r="C387" s="58"/>
+      <c r="D387" s="63"/>
       <c r="E387" s="3">
         <v>4</v>
       </c>
-      <c r="F387" s="49" t="s">
+      <c r="F387" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G387" s="50"/>
+      <c r="G387" s="34"/>
     </row>
     <row r="388" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="20"/>
-      <c r="C388" s="43"/>
-      <c r="D388" s="71"/>
+      <c r="C388" s="58"/>
+      <c r="D388" s="63"/>
       <c r="E388" s="3">
         <v>5</v>
       </c>
-      <c r="F388" s="49" t="s">
+      <c r="F388" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G388" s="50"/>
+      <c r="G388" s="34"/>
     </row>
     <row r="389" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="20"/>
-      <c r="C389" s="43"/>
-      <c r="D389" s="71"/>
+      <c r="C389" s="58"/>
+      <c r="D389" s="63"/>
       <c r="E389" s="3">
         <v>6</v>
       </c>
-      <c r="F389" s="49" t="s">
+      <c r="F389" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G389" s="50"/>
+      <c r="G389" s="34"/>
     </row>
     <row r="390" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20"/>
-      <c r="C390" s="45"/>
-      <c r="D390" s="72"/>
+      <c r="C390" s="28"/>
+      <c r="D390" s="29"/>
       <c r="E390" s="4">
         <v>7</v>
       </c>
-      <c r="F390" s="53" t="s">
+      <c r="F390" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G390" s="54"/>
+      <c r="G390" s="39"/>
     </row>
     <row r="391" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
@@ -7244,131 +7244,131 @@
       <c r="D392" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="E392" s="25" t="s">
+      <c r="E392" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F392" s="26"/>
-      <c r="G392" s="27"/>
+      <c r="F392" s="31"/>
+      <c r="G392" s="32"/>
     </row>
     <row r="393" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="20"/>
-      <c r="C393" s="33" t="s">
+      <c r="C393" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D393" s="34"/>
-      <c r="E393" s="64" t="s">
+      <c r="D393" s="48"/>
+      <c r="E393" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F393" s="65"/>
-      <c r="G393" s="66"/>
+      <c r="F393" s="36"/>
+      <c r="G393" s="37"/>
     </row>
     <row r="394" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="20"/>
-      <c r="C394" s="33" t="s">
+      <c r="C394" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D394" s="34"/>
-      <c r="E394" s="23" t="s">
+      <c r="D394" s="48"/>
+      <c r="E394" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="F394" s="24"/>
-      <c r="G394" s="35"/>
+      <c r="F394" s="50"/>
+      <c r="G394" s="51"/>
     </row>
     <row r="395" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20"/>
-      <c r="C395" s="36" t="s">
+      <c r="C395" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D395" s="37"/>
-      <c r="E395" s="67"/>
-      <c r="F395" s="68"/>
-      <c r="G395" s="69"/>
+      <c r="D395" s="53"/>
+      <c r="E395" s="89"/>
+      <c r="F395" s="90"/>
+      <c r="G395" s="91"/>
     </row>
     <row r="396" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="20"/>
-      <c r="C396" s="41" t="s">
+      <c r="C396" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D396" s="70"/>
+      <c r="D396" s="27"/>
       <c r="E396" s="2">
         <v>1</v>
       </c>
-      <c r="F396" s="47" t="s">
+      <c r="F396" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="G396" s="48"/>
+      <c r="G396" s="62"/>
     </row>
     <row r="397" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="20"/>
-      <c r="C397" s="43"/>
-      <c r="D397" s="71"/>
+      <c r="C397" s="58"/>
+      <c r="D397" s="63"/>
       <c r="E397" s="3">
         <v>2</v>
       </c>
-      <c r="F397" s="49" t="s">
+      <c r="F397" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G397" s="50"/>
+      <c r="G397" s="34"/>
     </row>
     <row r="398" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="20"/>
-      <c r="C398" s="43"/>
-      <c r="D398" s="71"/>
+      <c r="C398" s="58"/>
+      <c r="D398" s="63"/>
       <c r="E398" s="3">
         <v>3</v>
       </c>
-      <c r="F398" s="49" t="s">
+      <c r="F398" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="G398" s="50"/>
+      <c r="G398" s="34"/>
     </row>
     <row r="399" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="20"/>
-      <c r="C399" s="43"/>
-      <c r="D399" s="71"/>
+      <c r="C399" s="58"/>
+      <c r="D399" s="63"/>
       <c r="E399" s="3">
         <v>4</v>
       </c>
-      <c r="F399" s="49" t="s">
+      <c r="F399" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="G399" s="50"/>
+      <c r="G399" s="34"/>
     </row>
     <row r="400" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="20"/>
-      <c r="C400" s="43"/>
-      <c r="D400" s="71"/>
+      <c r="C400" s="58"/>
+      <c r="D400" s="63"/>
       <c r="E400" s="3">
         <v>5</v>
       </c>
-      <c r="F400" s="49" t="s">
+      <c r="F400" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G400" s="50"/>
+      <c r="G400" s="34"/>
     </row>
     <row r="401" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="20"/>
-      <c r="C401" s="43"/>
-      <c r="D401" s="71"/>
+      <c r="C401" s="58"/>
+      <c r="D401" s="63"/>
       <c r="E401" s="3">
         <v>6</v>
       </c>
-      <c r="F401" s="49" t="s">
+      <c r="F401" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="G401" s="50"/>
+      <c r="G401" s="34"/>
     </row>
     <row r="402" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20"/>
-      <c r="C402" s="45"/>
-      <c r="D402" s="72"/>
+      <c r="C402" s="28"/>
+      <c r="D402" s="29"/>
       <c r="E402" s="4">
         <v>7</v>
       </c>
-      <c r="F402" s="53" t="s">
+      <c r="F402" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="G402" s="54"/>
+      <c r="G402" s="39"/>
     </row>
     <row r="403" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="404" spans="1:7" s="22" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7379,107 +7379,107 @@
       <c r="D404" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="E404" s="25" t="s">
+      <c r="E404" s="30" t="s">
         <v>272</v>
       </c>
-      <c r="F404" s="26"/>
-      <c r="G404" s="27"/>
+      <c r="F404" s="31"/>
+      <c r="G404" s="32"/>
     </row>
     <row r="405" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="20"/>
-      <c r="C405" s="28" t="s">
+      <c r="C405" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D405" s="29"/>
-      <c r="E405" s="73" t="s">
+      <c r="D405" s="65"/>
+      <c r="E405" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F405" s="74"/>
-      <c r="G405" s="75"/>
+      <c r="F405" s="101"/>
+      <c r="G405" s="102"/>
     </row>
     <row r="406" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="20"/>
-      <c r="C406" s="33" t="s">
+      <c r="C406" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D406" s="34"/>
-      <c r="E406" s="23" t="s">
+      <c r="D406" s="48"/>
+      <c r="E406" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F406" s="24"/>
-      <c r="G406" s="35"/>
+      <c r="F406" s="50"/>
+      <c r="G406" s="51"/>
     </row>
     <row r="407" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
-      <c r="C407" s="36" t="s">
+      <c r="C407" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D407" s="37"/>
-      <c r="E407" s="38"/>
-      <c r="F407" s="39"/>
-      <c r="G407" s="40"/>
+      <c r="D407" s="53"/>
+      <c r="E407" s="77"/>
+      <c r="F407" s="78"/>
+      <c r="G407" s="79"/>
     </row>
     <row r="408" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="20"/>
-      <c r="C408" s="41" t="s">
+      <c r="C408" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D408" s="42"/>
+      <c r="D408" s="57"/>
       <c r="E408" s="2">
         <v>1</v>
       </c>
-      <c r="F408" s="47" t="s">
+      <c r="F408" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G408" s="48"/>
+      <c r="G408" s="62"/>
     </row>
     <row r="409" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="20"/>
-      <c r="C409" s="43"/>
-      <c r="D409" s="44"/>
+      <c r="C409" s="58"/>
+      <c r="D409" s="59"/>
       <c r="E409" s="3">
         <v>2</v>
       </c>
-      <c r="F409" s="49" t="s">
+      <c r="F409" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G409" s="50"/>
+      <c r="G409" s="34"/>
     </row>
     <row r="410" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="20"/>
-      <c r="C410" s="43"/>
-      <c r="D410" s="44"/>
+      <c r="C410" s="58"/>
+      <c r="D410" s="59"/>
       <c r="E410" s="3">
         <v>3</v>
       </c>
-      <c r="F410" s="49" t="s">
+      <c r="F410" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G410" s="50"/>
+      <c r="G410" s="34"/>
     </row>
     <row r="411" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="20"/>
-      <c r="C411" s="43"/>
-      <c r="D411" s="44"/>
+      <c r="C411" s="58"/>
+      <c r="D411" s="59"/>
       <c r="E411" s="3">
         <v>4</v>
       </c>
-      <c r="F411" s="49" t="s">
+      <c r="F411" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G411" s="50"/>
+      <c r="G411" s="34"/>
     </row>
     <row r="412" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
-      <c r="C412" s="45"/>
-      <c r="D412" s="46"/>
+      <c r="C412" s="28"/>
+      <c r="D412" s="60"/>
       <c r="E412" s="4">
         <v>5</v>
       </c>
-      <c r="F412" s="53" t="s">
+      <c r="F412" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G412" s="54"/>
+      <c r="G412" s="39"/>
     </row>
     <row r="413" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20"/>
@@ -7497,107 +7497,107 @@
       <c r="D414" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="E414" s="25" t="s">
+      <c r="E414" s="30" t="s">
         <v>271</v>
       </c>
-      <c r="F414" s="26"/>
-      <c r="G414" s="27"/>
+      <c r="F414" s="31"/>
+      <c r="G414" s="32"/>
     </row>
     <row r="415" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="20"/>
-      <c r="C415" s="33" t="s">
+      <c r="C415" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D415" s="34"/>
-      <c r="E415" s="64" t="s">
+      <c r="D415" s="48"/>
+      <c r="E415" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F415" s="65"/>
-      <c r="G415" s="66"/>
+      <c r="F415" s="36"/>
+      <c r="G415" s="37"/>
     </row>
     <row r="416" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="20"/>
-      <c r="C416" s="33" t="s">
+      <c r="C416" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D416" s="34"/>
-      <c r="E416" s="23" t="s">
+      <c r="D416" s="48"/>
+      <c r="E416" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="F416" s="24"/>
-      <c r="G416" s="35"/>
+      <c r="F416" s="50"/>
+      <c r="G416" s="51"/>
     </row>
     <row r="417" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20"/>
-      <c r="C417" s="36" t="s">
+      <c r="C417" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D417" s="37"/>
-      <c r="E417" s="67"/>
-      <c r="F417" s="68"/>
-      <c r="G417" s="69"/>
+      <c r="D417" s="53"/>
+      <c r="E417" s="89"/>
+      <c r="F417" s="90"/>
+      <c r="G417" s="91"/>
     </row>
     <row r="418" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="20"/>
-      <c r="C418" s="41" t="s">
+      <c r="C418" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D418" s="70"/>
+      <c r="D418" s="27"/>
       <c r="E418" s="2">
         <v>1</v>
       </c>
-      <c r="F418" s="47" t="s">
+      <c r="F418" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G418" s="48"/>
+      <c r="G418" s="62"/>
     </row>
     <row r="419" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="20"/>
-      <c r="C419" s="43"/>
-      <c r="D419" s="71"/>
+      <c r="C419" s="58"/>
+      <c r="D419" s="63"/>
       <c r="E419" s="3">
         <v>2</v>
       </c>
-      <c r="F419" s="49" t="s">
+      <c r="F419" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G419" s="50"/>
+      <c r="G419" s="34"/>
     </row>
     <row r="420" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="20"/>
-      <c r="C420" s="43"/>
-      <c r="D420" s="71"/>
+      <c r="C420" s="58"/>
+      <c r="D420" s="63"/>
       <c r="E420" s="3">
         <v>3</v>
       </c>
-      <c r="F420" s="49" t="s">
+      <c r="F420" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G420" s="50"/>
+      <c r="G420" s="34"/>
     </row>
     <row r="421" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="20"/>
-      <c r="C421" s="43"/>
-      <c r="D421" s="71"/>
+      <c r="C421" s="58"/>
+      <c r="D421" s="63"/>
       <c r="E421" s="3">
         <v>4</v>
       </c>
-      <c r="F421" s="49" t="s">
+      <c r="F421" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G421" s="50"/>
+      <c r="G421" s="34"/>
     </row>
     <row r="422" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20"/>
-      <c r="C422" s="45"/>
-      <c r="D422" s="72"/>
+      <c r="C422" s="28"/>
+      <c r="D422" s="29"/>
       <c r="E422" s="4">
         <v>5</v>
       </c>
-      <c r="F422" s="53" t="s">
+      <c r="F422" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G422" s="54"/>
+      <c r="G422" s="39"/>
     </row>
     <row r="423" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20"/>
@@ -7615,107 +7615,107 @@
       <c r="D424" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="E424" s="25" t="s">
+      <c r="E424" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F424" s="26"/>
-      <c r="G424" s="27"/>
+      <c r="F424" s="31"/>
+      <c r="G424" s="32"/>
     </row>
     <row r="425" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="20"/>
-      <c r="C425" s="33" t="s">
+      <c r="C425" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D425" s="34"/>
-      <c r="E425" s="64" t="s">
+      <c r="D425" s="48"/>
+      <c r="E425" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F425" s="65"/>
-      <c r="G425" s="66"/>
+      <c r="F425" s="36"/>
+      <c r="G425" s="37"/>
     </row>
     <row r="426" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="20"/>
-      <c r="C426" s="33" t="s">
+      <c r="C426" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D426" s="34"/>
-      <c r="E426" s="23" t="s">
+      <c r="D426" s="48"/>
+      <c r="E426" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="F426" s="24"/>
-      <c r="G426" s="35"/>
+      <c r="F426" s="50"/>
+      <c r="G426" s="51"/>
     </row>
     <row r="427" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20"/>
-      <c r="C427" s="36" t="s">
+      <c r="C427" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D427" s="37"/>
-      <c r="E427" s="67"/>
-      <c r="F427" s="68"/>
-      <c r="G427" s="69"/>
+      <c r="D427" s="53"/>
+      <c r="E427" s="89"/>
+      <c r="F427" s="90"/>
+      <c r="G427" s="91"/>
     </row>
     <row r="428" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="20"/>
-      <c r="C428" s="41" t="s">
+      <c r="C428" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D428" s="70"/>
+      <c r="D428" s="27"/>
       <c r="E428" s="2">
         <v>1</v>
       </c>
-      <c r="F428" s="47" t="s">
+      <c r="F428" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G428" s="48"/>
+      <c r="G428" s="62"/>
     </row>
     <row r="429" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="20"/>
-      <c r="C429" s="43"/>
-      <c r="D429" s="71"/>
+      <c r="C429" s="58"/>
+      <c r="D429" s="63"/>
       <c r="E429" s="3">
         <v>2</v>
       </c>
-      <c r="F429" s="49" t="s">
+      <c r="F429" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G429" s="50"/>
+      <c r="G429" s="34"/>
     </row>
     <row r="430" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="20"/>
-      <c r="C430" s="43"/>
-      <c r="D430" s="71"/>
+      <c r="C430" s="58"/>
+      <c r="D430" s="63"/>
       <c r="E430" s="3">
         <v>3</v>
       </c>
-      <c r="F430" s="49" t="s">
+      <c r="F430" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G430" s="50"/>
+      <c r="G430" s="34"/>
     </row>
     <row r="431" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="20"/>
-      <c r="C431" s="43"/>
-      <c r="D431" s="71"/>
+      <c r="C431" s="58"/>
+      <c r="D431" s="63"/>
       <c r="E431" s="3">
         <v>4</v>
       </c>
-      <c r="F431" s="49" t="s">
+      <c r="F431" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G431" s="50"/>
+      <c r="G431" s="34"/>
     </row>
     <row r="432" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
-      <c r="C432" s="45"/>
-      <c r="D432" s="72"/>
+      <c r="C432" s="28"/>
+      <c r="D432" s="29"/>
       <c r="E432" s="4">
         <v>5</v>
       </c>
-      <c r="F432" s="53" t="s">
+      <c r="F432" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G432" s="54"/>
+      <c r="G432" s="39"/>
     </row>
     <row r="433" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20"/>
@@ -7733,107 +7733,107 @@
       <c r="D434" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="E434" s="25" t="s">
+      <c r="E434" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="F434" s="26"/>
-      <c r="G434" s="27"/>
+      <c r="F434" s="31"/>
+      <c r="G434" s="32"/>
     </row>
     <row r="435" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="20"/>
-      <c r="C435" s="33" t="s">
+      <c r="C435" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D435" s="34"/>
-      <c r="E435" s="64" t="s">
+      <c r="D435" s="48"/>
+      <c r="E435" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F435" s="65"/>
-      <c r="G435" s="66"/>
+      <c r="F435" s="36"/>
+      <c r="G435" s="37"/>
     </row>
     <row r="436" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="20"/>
-      <c r="C436" s="33" t="s">
+      <c r="C436" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D436" s="34"/>
-      <c r="E436" s="23" t="s">
+      <c r="D436" s="48"/>
+      <c r="E436" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="F436" s="24"/>
-      <c r="G436" s="35"/>
+      <c r="F436" s="50"/>
+      <c r="G436" s="51"/>
     </row>
     <row r="437" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20"/>
-      <c r="C437" s="36" t="s">
+      <c r="C437" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D437" s="37"/>
-      <c r="E437" s="67"/>
-      <c r="F437" s="68"/>
-      <c r="G437" s="69"/>
+      <c r="D437" s="53"/>
+      <c r="E437" s="89"/>
+      <c r="F437" s="90"/>
+      <c r="G437" s="91"/>
     </row>
     <row r="438" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="20"/>
-      <c r="C438" s="41" t="s">
+      <c r="C438" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D438" s="70"/>
+      <c r="D438" s="27"/>
       <c r="E438" s="2">
         <v>1</v>
       </c>
-      <c r="F438" s="47" t="s">
+      <c r="F438" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G438" s="48"/>
+      <c r="G438" s="62"/>
     </row>
     <row r="439" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="20"/>
-      <c r="C439" s="43"/>
-      <c r="D439" s="71"/>
+      <c r="C439" s="58"/>
+      <c r="D439" s="63"/>
       <c r="E439" s="3">
         <v>2</v>
       </c>
-      <c r="F439" s="49" t="s">
+      <c r="F439" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G439" s="50"/>
+      <c r="G439" s="34"/>
     </row>
     <row r="440" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="20"/>
-      <c r="C440" s="43"/>
-      <c r="D440" s="71"/>
+      <c r="C440" s="58"/>
+      <c r="D440" s="63"/>
       <c r="E440" s="3">
         <v>3</v>
       </c>
-      <c r="F440" s="49" t="s">
+      <c r="F440" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G440" s="50"/>
+      <c r="G440" s="34"/>
     </row>
     <row r="441" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="20"/>
-      <c r="C441" s="43"/>
-      <c r="D441" s="71"/>
+      <c r="C441" s="58"/>
+      <c r="D441" s="63"/>
       <c r="E441" s="3">
         <v>4</v>
       </c>
-      <c r="F441" s="49" t="s">
+      <c r="F441" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G441" s="50"/>
+      <c r="G441" s="34"/>
     </row>
     <row r="442" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20"/>
-      <c r="C442" s="45"/>
-      <c r="D442" s="72"/>
+      <c r="C442" s="28"/>
+      <c r="D442" s="29"/>
       <c r="E442" s="4">
         <v>5</v>
       </c>
-      <c r="F442" s="53" t="s">
+      <c r="F442" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G442" s="54"/>
+      <c r="G442" s="39"/>
     </row>
     <row r="443" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20"/>
@@ -7851,107 +7851,107 @@
       <c r="D444" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="E444" s="25" t="s">
+      <c r="E444" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="F444" s="26"/>
-      <c r="G444" s="27"/>
+      <c r="F444" s="31"/>
+      <c r="G444" s="32"/>
     </row>
     <row r="445" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="20"/>
-      <c r="C445" s="33" t="s">
+      <c r="C445" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D445" s="34"/>
-      <c r="E445" s="64" t="s">
+      <c r="D445" s="48"/>
+      <c r="E445" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F445" s="65"/>
-      <c r="G445" s="66"/>
+      <c r="F445" s="36"/>
+      <c r="G445" s="37"/>
     </row>
     <row r="446" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="20"/>
-      <c r="C446" s="33" t="s">
+      <c r="C446" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D446" s="34"/>
-      <c r="E446" s="23" t="s">
+      <c r="D446" s="48"/>
+      <c r="E446" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="F446" s="24"/>
-      <c r="G446" s="35"/>
+      <c r="F446" s="50"/>
+      <c r="G446" s="51"/>
     </row>
     <row r="447" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20"/>
-      <c r="C447" s="36" t="s">
+      <c r="C447" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D447" s="37"/>
-      <c r="E447" s="67"/>
-      <c r="F447" s="68"/>
-      <c r="G447" s="69"/>
+      <c r="D447" s="53"/>
+      <c r="E447" s="89"/>
+      <c r="F447" s="90"/>
+      <c r="G447" s="91"/>
     </row>
     <row r="448" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="20"/>
-      <c r="C448" s="41" t="s">
+      <c r="C448" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D448" s="70"/>
+      <c r="D448" s="27"/>
       <c r="E448" s="2">
         <v>1</v>
       </c>
-      <c r="F448" s="47" t="s">
+      <c r="F448" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G448" s="48"/>
+      <c r="G448" s="62"/>
     </row>
     <row r="449" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="20"/>
-      <c r="C449" s="43"/>
-      <c r="D449" s="71"/>
+      <c r="C449" s="58"/>
+      <c r="D449" s="63"/>
       <c r="E449" s="3">
         <v>2</v>
       </c>
-      <c r="F449" s="49" t="s">
+      <c r="F449" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G449" s="50"/>
+      <c r="G449" s="34"/>
     </row>
     <row r="450" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="20"/>
-      <c r="C450" s="43"/>
-      <c r="D450" s="71"/>
+      <c r="C450" s="58"/>
+      <c r="D450" s="63"/>
       <c r="E450" s="3">
         <v>3</v>
       </c>
-      <c r="F450" s="49" t="s">
+      <c r="F450" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G450" s="50"/>
+      <c r="G450" s="34"/>
     </row>
     <row r="451" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="20"/>
-      <c r="C451" s="43"/>
-      <c r="D451" s="71"/>
+      <c r="C451" s="58"/>
+      <c r="D451" s="63"/>
       <c r="E451" s="3">
         <v>4</v>
       </c>
-      <c r="F451" s="49" t="s">
+      <c r="F451" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G451" s="50"/>
+      <c r="G451" s="34"/>
     </row>
     <row r="452" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20"/>
-      <c r="C452" s="45"/>
-      <c r="D452" s="72"/>
+      <c r="C452" s="28"/>
+      <c r="D452" s="29"/>
       <c r="E452" s="4">
         <v>5</v>
       </c>
-      <c r="F452" s="53" t="s">
+      <c r="F452" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G452" s="54"/>
+      <c r="G452" s="39"/>
     </row>
     <row r="453" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20"/>
@@ -7969,116 +7969,116 @@
       <c r="D454" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="E454" s="25" t="s">
+      <c r="E454" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="F454" s="26"/>
-      <c r="G454" s="27"/>
+      <c r="F454" s="31"/>
+      <c r="G454" s="32"/>
     </row>
     <row r="455" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="20"/>
-      <c r="C455" s="33" t="s">
+      <c r="C455" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D455" s="34"/>
-      <c r="E455" s="64" t="s">
+      <c r="D455" s="48"/>
+      <c r="E455" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="F455" s="65"/>
-      <c r="G455" s="66"/>
+      <c r="F455" s="36"/>
+      <c r="G455" s="37"/>
     </row>
     <row r="456" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="20"/>
-      <c r="C456" s="33" t="s">
+      <c r="C456" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D456" s="34"/>
-      <c r="E456" s="23" t="s">
+      <c r="D456" s="48"/>
+      <c r="E456" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="F456" s="24"/>
-      <c r="G456" s="35"/>
+      <c r="F456" s="50"/>
+      <c r="G456" s="51"/>
     </row>
     <row r="457" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20"/>
-      <c r="C457" s="36" t="s">
+      <c r="C457" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D457" s="37"/>
-      <c r="E457" s="67"/>
-      <c r="F457" s="68"/>
-      <c r="G457" s="69"/>
+      <c r="D457" s="53"/>
+      <c r="E457" s="89"/>
+      <c r="F457" s="90"/>
+      <c r="G457" s="91"/>
     </row>
     <row r="458" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="20"/>
-      <c r="C458" s="41" t="s">
+      <c r="C458" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D458" s="70"/>
+      <c r="D458" s="27"/>
       <c r="E458" s="2">
         <v>1</v>
       </c>
-      <c r="F458" s="47" t="s">
+      <c r="F458" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="G458" s="48"/>
+      <c r="G458" s="62"/>
     </row>
     <row r="459" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="20"/>
-      <c r="C459" s="43"/>
-      <c r="D459" s="71"/>
+      <c r="C459" s="58"/>
+      <c r="D459" s="63"/>
       <c r="E459" s="3">
         <v>2</v>
       </c>
-      <c r="F459" s="49" t="s">
+      <c r="F459" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="G459" s="50"/>
+      <c r="G459" s="34"/>
     </row>
     <row r="460" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="20"/>
-      <c r="C460" s="43"/>
-      <c r="D460" s="71"/>
+      <c r="C460" s="58"/>
+      <c r="D460" s="63"/>
       <c r="E460" s="3">
         <v>3</v>
       </c>
-      <c r="F460" s="49" t="s">
+      <c r="F460" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G460" s="50"/>
+      <c r="G460" s="34"/>
     </row>
     <row r="461" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="20"/>
-      <c r="C461" s="43"/>
-      <c r="D461" s="71"/>
+      <c r="C461" s="58"/>
+      <c r="D461" s="63"/>
       <c r="E461" s="3">
         <v>4</v>
       </c>
-      <c r="F461" s="49" t="s">
+      <c r="F461" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="G461" s="50"/>
+      <c r="G461" s="34"/>
     </row>
     <row r="462" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20"/>
-      <c r="C462" s="45"/>
-      <c r="D462" s="72"/>
+      <c r="C462" s="28"/>
+      <c r="D462" s="29"/>
       <c r="E462" s="4">
         <v>5</v>
       </c>
-      <c r="F462" s="53" t="s">
+      <c r="F462" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="G462" s="54"/>
+      <c r="G462" s="39"/>
     </row>
     <row r="464" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="98" t="s">
+      <c r="B464" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="C464" s="98"/>
-      <c r="D464" s="98"/>
-      <c r="E464" s="98"/>
-      <c r="F464" s="98"/>
+      <c r="C464" s="40"/>
+      <c r="D464" s="40"/>
+      <c r="E464" s="40"/>
+      <c r="F464" s="40"/>
     </row>
     <row r="465" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="20"/>
@@ -8091,145 +8091,145 @@
       <c r="D466" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="E466" s="25" t="s">
+      <c r="E466" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="F466" s="26"/>
-      <c r="G466" s="27"/>
+      <c r="F466" s="31"/>
+      <c r="G466" s="32"/>
     </row>
     <row r="467" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="20"/>
-      <c r="C467" s="28" t="s">
+      <c r="C467" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D467" s="29"/>
-      <c r="E467" s="30" t="s">
+      <c r="D467" s="65"/>
+      <c r="E467" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F467" s="31"/>
-      <c r="G467" s="32"/>
+      <c r="F467" s="45"/>
+      <c r="G467" s="46"/>
     </row>
     <row r="468" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="20"/>
-      <c r="C468" s="33" t="s">
+      <c r="C468" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D468" s="34"/>
-      <c r="E468" s="23" t="s">
+      <c r="D468" s="48"/>
+      <c r="E468" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F468" s="24"/>
-      <c r="G468" s="35"/>
+      <c r="F468" s="50"/>
+      <c r="G468" s="51"/>
     </row>
     <row r="469" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="20"/>
-      <c r="C469" s="36" t="s">
+      <c r="C469" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D469" s="37"/>
-      <c r="E469" s="38" t="s">
+      <c r="D469" s="53"/>
+      <c r="E469" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="F469" s="39"/>
-      <c r="G469" s="40"/>
+      <c r="F469" s="78"/>
+      <c r="G469" s="79"/>
     </row>
     <row r="470" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="20"/>
-      <c r="C470" s="41" t="s">
+      <c r="C470" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D470" s="42"/>
+      <c r="D470" s="57"/>
       <c r="E470" s="2">
         <v>1</v>
       </c>
-      <c r="F470" s="47" t="s">
+      <c r="F470" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G470" s="48"/>
+      <c r="G470" s="62"/>
     </row>
     <row r="471" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="20"/>
-      <c r="C471" s="43"/>
-      <c r="D471" s="44"/>
+      <c r="C471" s="58"/>
+      <c r="D471" s="59"/>
       <c r="E471" s="3">
         <v>2</v>
       </c>
-      <c r="F471" s="49" t="s">
+      <c r="F471" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G471" s="50"/>
+      <c r="G471" s="34"/>
     </row>
     <row r="472" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="20"/>
-      <c r="C472" s="43"/>
-      <c r="D472" s="44"/>
+      <c r="C472" s="58"/>
+      <c r="D472" s="59"/>
       <c r="E472" s="3">
         <v>3</v>
       </c>
-      <c r="F472" s="49" t="s">
+      <c r="F472" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G472" s="50"/>
+      <c r="G472" s="34"/>
     </row>
     <row r="473" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="20"/>
-      <c r="C473" s="43"/>
-      <c r="D473" s="44"/>
+      <c r="C473" s="58"/>
+      <c r="D473" s="59"/>
       <c r="E473" s="3">
         <v>4</v>
       </c>
-      <c r="F473" s="49" t="s">
+      <c r="F473" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="G473" s="50"/>
+      <c r="G473" s="34"/>
     </row>
     <row r="474" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="20"/>
-      <c r="C474" s="43"/>
-      <c r="D474" s="44"/>
+      <c r="C474" s="58"/>
+      <c r="D474" s="59"/>
       <c r="E474" s="3">
         <v>5</v>
       </c>
-      <c r="F474" s="49" t="s">
+      <c r="F474" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="G474" s="50"/>
+      <c r="G474" s="34"/>
     </row>
     <row r="475" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="20"/>
-      <c r="C475" s="43"/>
-      <c r="D475" s="44"/>
+      <c r="C475" s="58"/>
+      <c r="D475" s="59"/>
       <c r="E475" s="3">
         <v>6</v>
       </c>
-      <c r="F475" s="49" t="s">
+      <c r="F475" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="G475" s="50"/>
+      <c r="G475" s="34"/>
     </row>
     <row r="476" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="20"/>
-      <c r="C476" s="43"/>
-      <c r="D476" s="44"/>
+      <c r="C476" s="58"/>
+      <c r="D476" s="59"/>
       <c r="E476" s="3">
         <v>7</v>
       </c>
-      <c r="F476" s="49" t="s">
+      <c r="F476" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="G476" s="50"/>
+      <c r="G476" s="34"/>
     </row>
     <row r="477" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="20"/>
-      <c r="C477" s="45"/>
-      <c r="D477" s="46"/>
+      <c r="C477" s="28"/>
+      <c r="D477" s="60"/>
       <c r="E477" s="4">
         <v>8</v>
       </c>
-      <c r="F477" s="53" t="s">
+      <c r="F477" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="G477" s="54"/>
+      <c r="G477" s="39"/>
     </row>
     <row r="478" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="20"/>
@@ -8247,145 +8247,145 @@
       <c r="D479" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="E479" s="25" t="s">
+      <c r="E479" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="F479" s="26"/>
-      <c r="G479" s="27"/>
+      <c r="F479" s="31"/>
+      <c r="G479" s="32"/>
     </row>
     <row r="480" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="20"/>
-      <c r="C480" s="28" t="s">
+      <c r="C480" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D480" s="29"/>
-      <c r="E480" s="30" t="s">
+      <c r="D480" s="65"/>
+      <c r="E480" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F480" s="31"/>
-      <c r="G480" s="32"/>
+      <c r="F480" s="45"/>
+      <c r="G480" s="46"/>
     </row>
     <row r="481" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="20"/>
-      <c r="C481" s="33" t="s">
+      <c r="C481" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D481" s="34"/>
-      <c r="E481" s="23" t="s">
+      <c r="D481" s="48"/>
+      <c r="E481" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="F481" s="24"/>
-      <c r="G481" s="35"/>
+      <c r="F481" s="50"/>
+      <c r="G481" s="51"/>
     </row>
     <row r="482" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="20"/>
-      <c r="C482" s="36" t="s">
+      <c r="C482" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D482" s="37"/>
-      <c r="E482" s="38" t="s">
+      <c r="D482" s="53"/>
+      <c r="E482" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="F482" s="39"/>
-      <c r="G482" s="40"/>
+      <c r="F482" s="78"/>
+      <c r="G482" s="79"/>
     </row>
     <row r="483" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="20"/>
-      <c r="C483" s="41" t="s">
+      <c r="C483" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D483" s="42"/>
+      <c r="D483" s="57"/>
       <c r="E483" s="2">
         <v>1</v>
       </c>
-      <c r="F483" s="47" t="s">
+      <c r="F483" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G483" s="48"/>
+      <c r="G483" s="62"/>
     </row>
     <row r="484" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="20"/>
-      <c r="C484" s="43"/>
-      <c r="D484" s="44"/>
+      <c r="C484" s="58"/>
+      <c r="D484" s="59"/>
       <c r="E484" s="3">
         <v>2</v>
       </c>
-      <c r="F484" s="49" t="s">
+      <c r="F484" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G484" s="50"/>
+      <c r="G484" s="34"/>
     </row>
     <row r="485" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="20"/>
-      <c r="C485" s="43"/>
-      <c r="D485" s="44"/>
+      <c r="C485" s="58"/>
+      <c r="D485" s="59"/>
       <c r="E485" s="3">
         <v>3</v>
       </c>
-      <c r="F485" s="49" t="s">
+      <c r="F485" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G485" s="50"/>
+      <c r="G485" s="34"/>
     </row>
     <row r="486" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="20"/>
-      <c r="C486" s="43"/>
-      <c r="D486" s="44"/>
+      <c r="C486" s="58"/>
+      <c r="D486" s="59"/>
       <c r="E486" s="3">
         <v>4</v>
       </c>
-      <c r="F486" s="49" t="s">
+      <c r="F486" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G486" s="50"/>
+      <c r="G486" s="34"/>
     </row>
     <row r="487" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="20"/>
-      <c r="C487" s="43"/>
-      <c r="D487" s="44"/>
+      <c r="C487" s="58"/>
+      <c r="D487" s="59"/>
       <c r="E487" s="3">
         <v>5</v>
       </c>
-      <c r="F487" s="49" t="s">
+      <c r="F487" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G487" s="50"/>
+      <c r="G487" s="34"/>
     </row>
     <row r="488" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="20"/>
-      <c r="C488" s="43"/>
-      <c r="D488" s="44"/>
+      <c r="C488" s="58"/>
+      <c r="D488" s="59"/>
       <c r="E488" s="3">
         <v>6</v>
       </c>
-      <c r="F488" s="49" t="s">
+      <c r="F488" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G488" s="50"/>
+      <c r="G488" s="34"/>
     </row>
     <row r="489" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="20"/>
-      <c r="C489" s="43"/>
-      <c r="D489" s="44"/>
+      <c r="C489" s="58"/>
+      <c r="D489" s="59"/>
       <c r="E489" s="3">
         <v>7</v>
       </c>
-      <c r="F489" s="49" t="s">
+      <c r="F489" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="G489" s="50"/>
+      <c r="G489" s="34"/>
     </row>
     <row r="490" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="20"/>
-      <c r="C490" s="45"/>
-      <c r="D490" s="46"/>
+      <c r="C490" s="28"/>
+      <c r="D490" s="60"/>
       <c r="E490" s="4">
         <v>8</v>
       </c>
-      <c r="F490" s="51" t="s">
+      <c r="F490" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="G490" s="52"/>
+      <c r="G490" s="81"/>
     </row>
     <row r="491" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="20"/>
@@ -8398,145 +8398,145 @@
       <c r="D492" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="E492" s="25" t="s">
+      <c r="E492" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F492" s="26"/>
-      <c r="G492" s="27"/>
+      <c r="F492" s="31"/>
+      <c r="G492" s="32"/>
     </row>
     <row r="493" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="20"/>
-      <c r="C493" s="28" t="s">
+      <c r="C493" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D493" s="29"/>
-      <c r="E493" s="30" t="s">
+      <c r="D493" s="65"/>
+      <c r="E493" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F493" s="31"/>
-      <c r="G493" s="32"/>
+      <c r="F493" s="45"/>
+      <c r="G493" s="46"/>
     </row>
     <row r="494" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="20"/>
-      <c r="C494" s="33" t="s">
+      <c r="C494" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D494" s="34"/>
-      <c r="E494" s="23" t="s">
+      <c r="D494" s="48"/>
+      <c r="E494" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="F494" s="24"/>
-      <c r="G494" s="35"/>
+      <c r="F494" s="50"/>
+      <c r="G494" s="51"/>
     </row>
     <row r="495" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="20"/>
-      <c r="C495" s="36" t="s">
+      <c r="C495" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D495" s="37"/>
-      <c r="E495" s="38" t="s">
+      <c r="D495" s="53"/>
+      <c r="E495" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="F495" s="39"/>
-      <c r="G495" s="40"/>
+      <c r="F495" s="78"/>
+      <c r="G495" s="79"/>
     </row>
     <row r="496" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="20"/>
-      <c r="C496" s="41" t="s">
+      <c r="C496" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D496" s="42"/>
+      <c r="D496" s="57"/>
       <c r="E496" s="2">
         <v>1</v>
       </c>
-      <c r="F496" s="47" t="s">
+      <c r="F496" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G496" s="48"/>
+      <c r="G496" s="62"/>
     </row>
     <row r="497" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="20"/>
-      <c r="C497" s="43"/>
-      <c r="D497" s="44"/>
+      <c r="C497" s="58"/>
+      <c r="D497" s="59"/>
       <c r="E497" s="3">
         <v>2</v>
       </c>
-      <c r="F497" s="49" t="s">
+      <c r="F497" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G497" s="50"/>
+      <c r="G497" s="34"/>
     </row>
     <row r="498" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="20"/>
-      <c r="C498" s="43"/>
-      <c r="D498" s="44"/>
+      <c r="C498" s="58"/>
+      <c r="D498" s="59"/>
       <c r="E498" s="3">
         <v>3</v>
       </c>
-      <c r="F498" s="49" t="s">
+      <c r="F498" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G498" s="50"/>
+      <c r="G498" s="34"/>
     </row>
     <row r="499" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="20"/>
-      <c r="C499" s="43"/>
-      <c r="D499" s="44"/>
+      <c r="C499" s="58"/>
+      <c r="D499" s="59"/>
       <c r="E499" s="3">
         <v>4</v>
       </c>
-      <c r="F499" s="49" t="s">
+      <c r="F499" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="G499" s="50"/>
+      <c r="G499" s="34"/>
     </row>
     <row r="500" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="20"/>
-      <c r="C500" s="43"/>
-      <c r="D500" s="44"/>
+      <c r="C500" s="58"/>
+      <c r="D500" s="59"/>
       <c r="E500" s="3">
         <v>5</v>
       </c>
-      <c r="F500" s="49" t="s">
+      <c r="F500" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="G500" s="50"/>
+      <c r="G500" s="34"/>
     </row>
     <row r="501" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="20"/>
-      <c r="C501" s="43"/>
-      <c r="D501" s="44"/>
+      <c r="C501" s="58"/>
+      <c r="D501" s="59"/>
       <c r="E501" s="3">
         <v>6</v>
       </c>
-      <c r="F501" s="49" t="s">
+      <c r="F501" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="G501" s="50"/>
+      <c r="G501" s="34"/>
     </row>
     <row r="502" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A502" s="20"/>
-      <c r="C502" s="43"/>
-      <c r="D502" s="44"/>
+      <c r="C502" s="58"/>
+      <c r="D502" s="59"/>
       <c r="E502" s="3">
         <v>7</v>
       </c>
-      <c r="F502" s="49" t="s">
+      <c r="F502" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="G502" s="50"/>
+      <c r="G502" s="34"/>
     </row>
     <row r="503" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="20"/>
-      <c r="C503" s="45"/>
-      <c r="D503" s="46"/>
+      <c r="C503" s="28"/>
+      <c r="D503" s="60"/>
       <c r="E503" s="4">
         <v>8</v>
       </c>
-      <c r="F503" s="53" t="s">
+      <c r="F503" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="G503" s="54"/>
+      <c r="G503" s="39"/>
     </row>
     <row r="504" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="20"/>
@@ -8554,145 +8554,145 @@
       <c r="D505" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="E505" s="25" t="s">
+      <c r="E505" s="30" t="s">
         <v>337</v>
       </c>
-      <c r="F505" s="26"/>
-      <c r="G505" s="27"/>
+      <c r="F505" s="31"/>
+      <c r="G505" s="32"/>
     </row>
     <row r="506" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A506" s="20"/>
-      <c r="C506" s="28" t="s">
+      <c r="C506" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D506" s="29"/>
-      <c r="E506" s="30" t="s">
+      <c r="D506" s="65"/>
+      <c r="E506" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F506" s="31"/>
-      <c r="G506" s="32"/>
+      <c r="F506" s="45"/>
+      <c r="G506" s="46"/>
     </row>
     <row r="507" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A507" s="20"/>
-      <c r="C507" s="33" t="s">
+      <c r="C507" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D507" s="34"/>
-      <c r="E507" s="23" t="s">
+      <c r="D507" s="48"/>
+      <c r="E507" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="F507" s="24"/>
-      <c r="G507" s="35"/>
+      <c r="F507" s="50"/>
+      <c r="G507" s="51"/>
     </row>
     <row r="508" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="20"/>
-      <c r="C508" s="36" t="s">
+      <c r="C508" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D508" s="37"/>
-      <c r="E508" s="38" t="s">
+      <c r="D508" s="53"/>
+      <c r="E508" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="F508" s="39"/>
-      <c r="G508" s="40"/>
+      <c r="F508" s="78"/>
+      <c r="G508" s="79"/>
     </row>
     <row r="509" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A509" s="20"/>
-      <c r="C509" s="41" t="s">
+      <c r="C509" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D509" s="42"/>
+      <c r="D509" s="57"/>
       <c r="E509" s="2">
         <v>1</v>
       </c>
-      <c r="F509" s="47" t="s">
+      <c r="F509" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G509" s="48"/>
+      <c r="G509" s="62"/>
     </row>
     <row r="510" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A510" s="20"/>
-      <c r="C510" s="43"/>
-      <c r="D510" s="44"/>
+      <c r="C510" s="58"/>
+      <c r="D510" s="59"/>
       <c r="E510" s="3">
         <v>2</v>
       </c>
-      <c r="F510" s="49" t="s">
+      <c r="F510" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G510" s="50"/>
+      <c r="G510" s="34"/>
     </row>
     <row r="511" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A511" s="20"/>
-      <c r="C511" s="43"/>
-      <c r="D511" s="44"/>
+      <c r="C511" s="58"/>
+      <c r="D511" s="59"/>
       <c r="E511" s="3">
         <v>3</v>
       </c>
-      <c r="F511" s="49" t="s">
+      <c r="F511" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G511" s="50"/>
+      <c r="G511" s="34"/>
     </row>
     <row r="512" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A512" s="20"/>
-      <c r="C512" s="43"/>
-      <c r="D512" s="44"/>
+      <c r="C512" s="58"/>
+      <c r="D512" s="59"/>
       <c r="E512" s="3">
         <v>4</v>
       </c>
-      <c r="F512" s="49" t="s">
+      <c r="F512" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G512" s="50"/>
+      <c r="G512" s="34"/>
     </row>
     <row r="513" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A513" s="20"/>
-      <c r="C513" s="43"/>
-      <c r="D513" s="44"/>
+      <c r="C513" s="58"/>
+      <c r="D513" s="59"/>
       <c r="E513" s="3">
         <v>5</v>
       </c>
-      <c r="F513" s="49" t="s">
+      <c r="F513" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G513" s="50"/>
+      <c r="G513" s="34"/>
     </row>
     <row r="514" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A514" s="20"/>
-      <c r="C514" s="43"/>
-      <c r="D514" s="44"/>
+      <c r="C514" s="58"/>
+      <c r="D514" s="59"/>
       <c r="E514" s="3">
         <v>6</v>
       </c>
-      <c r="F514" s="49" t="s">
+      <c r="F514" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G514" s="50"/>
+      <c r="G514" s="34"/>
     </row>
     <row r="515" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A515" s="20"/>
-      <c r="C515" s="43"/>
-      <c r="D515" s="44"/>
+      <c r="C515" s="58"/>
+      <c r="D515" s="59"/>
       <c r="E515" s="3">
         <v>7</v>
       </c>
-      <c r="F515" s="49" t="s">
+      <c r="F515" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="G515" s="50"/>
+      <c r="G515" s="34"/>
     </row>
     <row r="516" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="20"/>
-      <c r="C516" s="45"/>
-      <c r="D516" s="46"/>
+      <c r="C516" s="28"/>
+      <c r="D516" s="60"/>
       <c r="E516" s="4">
         <v>8</v>
       </c>
-      <c r="F516" s="51" t="s">
+      <c r="F516" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="G516" s="52"/>
+      <c r="G516" s="81"/>
     </row>
     <row r="517" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="20"/>
@@ -8705,145 +8705,145 @@
       <c r="D518" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="E518" s="25" t="s">
+      <c r="E518" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F518" s="26"/>
-      <c r="G518" s="27"/>
+      <c r="F518" s="31"/>
+      <c r="G518" s="32"/>
     </row>
     <row r="519" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="20"/>
-      <c r="C519" s="28" t="s">
+      <c r="C519" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D519" s="29"/>
-      <c r="E519" s="30" t="s">
+      <c r="D519" s="65"/>
+      <c r="E519" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F519" s="31"/>
-      <c r="G519" s="32"/>
+      <c r="F519" s="45"/>
+      <c r="G519" s="46"/>
     </row>
     <row r="520" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A520" s="20"/>
-      <c r="C520" s="33" t="s">
+      <c r="C520" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D520" s="34"/>
-      <c r="E520" s="23" t="s">
+      <c r="D520" s="48"/>
+      <c r="E520" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="F520" s="24"/>
-      <c r="G520" s="35"/>
+      <c r="F520" s="50"/>
+      <c r="G520" s="51"/>
     </row>
     <row r="521" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="20"/>
-      <c r="C521" s="36" t="s">
+      <c r="C521" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D521" s="37"/>
-      <c r="E521" s="38" t="s">
+      <c r="D521" s="53"/>
+      <c r="E521" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="F521" s="39"/>
-      <c r="G521" s="40"/>
+      <c r="F521" s="78"/>
+      <c r="G521" s="79"/>
     </row>
     <row r="522" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A522" s="20"/>
-      <c r="C522" s="41" t="s">
+      <c r="C522" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D522" s="42"/>
+      <c r="D522" s="57"/>
       <c r="E522" s="2">
         <v>1</v>
       </c>
-      <c r="F522" s="47" t="s">
+      <c r="F522" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G522" s="48"/>
+      <c r="G522" s="62"/>
     </row>
     <row r="523" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A523" s="20"/>
-      <c r="C523" s="43"/>
-      <c r="D523" s="44"/>
+      <c r="C523" s="58"/>
+      <c r="D523" s="59"/>
       <c r="E523" s="3">
         <v>2</v>
       </c>
-      <c r="F523" s="49" t="s">
+      <c r="F523" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="G523" s="50"/>
+      <c r="G523" s="34"/>
     </row>
     <row r="524" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A524" s="20"/>
-      <c r="C524" s="43"/>
-      <c r="D524" s="44"/>
+      <c r="C524" s="58"/>
+      <c r="D524" s="59"/>
       <c r="E524" s="3">
         <v>3</v>
       </c>
-      <c r="F524" s="49" t="s">
+      <c r="F524" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G524" s="50"/>
+      <c r="G524" s="34"/>
     </row>
     <row r="525" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A525" s="20"/>
-      <c r="C525" s="43"/>
-      <c r="D525" s="44"/>
+      <c r="C525" s="58"/>
+      <c r="D525" s="59"/>
       <c r="E525" s="3">
         <v>4</v>
       </c>
-      <c r="F525" s="49" t="s">
+      <c r="F525" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="G525" s="50"/>
+      <c r="G525" s="34"/>
     </row>
     <row r="526" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A526" s="20"/>
-      <c r="C526" s="43"/>
-      <c r="D526" s="44"/>
+      <c r="C526" s="58"/>
+      <c r="D526" s="59"/>
       <c r="E526" s="3">
         <v>5</v>
       </c>
-      <c r="F526" s="49" t="s">
+      <c r="F526" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="G526" s="50"/>
+      <c r="G526" s="34"/>
     </row>
     <row r="527" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A527" s="20"/>
-      <c r="C527" s="43"/>
-      <c r="D527" s="44"/>
+      <c r="C527" s="58"/>
+      <c r="D527" s="59"/>
       <c r="E527" s="3">
         <v>6</v>
       </c>
-      <c r="F527" s="49" t="s">
+      <c r="F527" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="G527" s="50"/>
+      <c r="G527" s="34"/>
     </row>
     <row r="528" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A528" s="20"/>
-      <c r="C528" s="43"/>
-      <c r="D528" s="44"/>
+      <c r="C528" s="58"/>
+      <c r="D528" s="59"/>
       <c r="E528" s="3">
         <v>7</v>
       </c>
-      <c r="F528" s="49" t="s">
+      <c r="F528" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="G528" s="50"/>
+      <c r="G528" s="34"/>
     </row>
     <row r="529" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="20"/>
-      <c r="C529" s="45"/>
-      <c r="D529" s="46"/>
+      <c r="C529" s="28"/>
+      <c r="D529" s="60"/>
       <c r="E529" s="4">
         <v>8</v>
       </c>
-      <c r="F529" s="53" t="s">
+      <c r="F529" s="38" t="s">
         <v>307</v>
       </c>
-      <c r="G529" s="54"/>
+      <c r="G529" s="39"/>
     </row>
     <row r="530" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="20"/>
@@ -8861,145 +8861,145 @@
       <c r="D531" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="E531" s="25" t="s">
+      <c r="E531" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="F531" s="26"/>
-      <c r="G531" s="27"/>
+      <c r="F531" s="31"/>
+      <c r="G531" s="32"/>
     </row>
     <row r="532" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A532" s="20"/>
-      <c r="C532" s="28" t="s">
+      <c r="C532" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="D532" s="29"/>
-      <c r="E532" s="30" t="s">
+      <c r="D532" s="65"/>
+      <c r="E532" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="F532" s="31"/>
-      <c r="G532" s="32"/>
+      <c r="F532" s="45"/>
+      <c r="G532" s="46"/>
     </row>
     <row r="533" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A533" s="20"/>
-      <c r="C533" s="33" t="s">
+      <c r="C533" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D533" s="34"/>
-      <c r="E533" s="23" t="s">
+      <c r="D533" s="48"/>
+      <c r="E533" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="F533" s="24"/>
-      <c r="G533" s="35"/>
+      <c r="F533" s="50"/>
+      <c r="G533" s="51"/>
     </row>
     <row r="534" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="20"/>
-      <c r="C534" s="36" t="s">
+      <c r="C534" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D534" s="37"/>
-      <c r="E534" s="38" t="s">
+      <c r="D534" s="53"/>
+      <c r="E534" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="F534" s="39"/>
-      <c r="G534" s="40"/>
+      <c r="F534" s="78"/>
+      <c r="G534" s="79"/>
     </row>
     <row r="535" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A535" s="20"/>
-      <c r="C535" s="41" t="s">
+      <c r="C535" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D535" s="42"/>
+      <c r="D535" s="57"/>
       <c r="E535" s="2">
         <v>1</v>
       </c>
-      <c r="F535" s="47" t="s">
+      <c r="F535" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="G535" s="48"/>
+      <c r="G535" s="62"/>
     </row>
     <row r="536" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A536" s="20"/>
-      <c r="C536" s="43"/>
-      <c r="D536" s="44"/>
+      <c r="C536" s="58"/>
+      <c r="D536" s="59"/>
       <c r="E536" s="3">
         <v>2</v>
       </c>
-      <c r="F536" s="49" t="s">
+      <c r="F536" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="G536" s="50"/>
+      <c r="G536" s="34"/>
     </row>
     <row r="537" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A537" s="20"/>
-      <c r="C537" s="43"/>
-      <c r="D537" s="44"/>
+      <c r="C537" s="58"/>
+      <c r="D537" s="59"/>
       <c r="E537" s="3">
         <v>3</v>
       </c>
-      <c r="F537" s="49" t="s">
+      <c r="F537" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="G537" s="50"/>
+      <c r="G537" s="34"/>
     </row>
     <row r="538" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A538" s="20"/>
-      <c r="C538" s="43"/>
-      <c r="D538" s="44"/>
+      <c r="C538" s="58"/>
+      <c r="D538" s="59"/>
       <c r="E538" s="3">
         <v>4</v>
       </c>
-      <c r="F538" s="49" t="s">
+      <c r="F538" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="G538" s="50"/>
+      <c r="G538" s="34"/>
     </row>
     <row r="539" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="20"/>
-      <c r="C539" s="43"/>
-      <c r="D539" s="44"/>
+      <c r="C539" s="58"/>
+      <c r="D539" s="59"/>
       <c r="E539" s="3">
         <v>5</v>
       </c>
-      <c r="F539" s="49" t="s">
+      <c r="F539" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="G539" s="50"/>
+      <c r="G539" s="34"/>
     </row>
     <row r="540" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A540" s="20"/>
-      <c r="C540" s="43"/>
-      <c r="D540" s="44"/>
+      <c r="C540" s="58"/>
+      <c r="D540" s="59"/>
       <c r="E540" s="3">
         <v>6</v>
       </c>
-      <c r="F540" s="49" t="s">
+      <c r="F540" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="G540" s="50"/>
+      <c r="G540" s="34"/>
     </row>
     <row r="541" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A541" s="20"/>
-      <c r="C541" s="43"/>
-      <c r="D541" s="44"/>
+      <c r="C541" s="58"/>
+      <c r="D541" s="59"/>
       <c r="E541" s="3">
         <v>7</v>
       </c>
-      <c r="F541" s="49" t="s">
+      <c r="F541" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="G541" s="50"/>
+      <c r="G541" s="34"/>
     </row>
     <row r="542" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="20"/>
-      <c r="C542" s="45"/>
-      <c r="D542" s="46"/>
+      <c r="C542" s="28"/>
+      <c r="D542" s="60"/>
       <c r="E542" s="4">
         <v>8</v>
       </c>
-      <c r="F542" s="51" t="s">
+      <c r="F542" s="80" t="s">
         <v>307</v>
       </c>
-      <c r="G542" s="52"/>
+      <c r="G542" s="81"/>
     </row>
     <row r="543" spans="1:7" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="20"/>
@@ -9017,131 +9017,131 @@
       <c r="C544" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="D544" s="61" t="s">
+      <c r="D544" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="E544" s="62"/>
-      <c r="F544" s="63"/>
+      <c r="E544" s="42"/>
+      <c r="F544" s="43"/>
     </row>
     <row r="545" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A545" s="20"/>
-      <c r="B545" s="28" t="s">
+      <c r="B545" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C545" s="29"/>
-      <c r="D545" s="30" t="s">
+      <c r="C545" s="65"/>
+      <c r="D545" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E545" s="31"/>
-      <c r="F545" s="32"/>
+      <c r="E545" s="45"/>
+      <c r="F545" s="46"/>
     </row>
     <row r="546" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A546" s="20"/>
-      <c r="B546" s="33" t="s">
+      <c r="B546" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C546" s="34"/>
-      <c r="D546" s="58" t="s">
+      <c r="C546" s="48"/>
+      <c r="D546" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E546" s="59"/>
-      <c r="F546" s="60"/>
+      <c r="E546" s="75"/>
+      <c r="F546" s="76"/>
     </row>
     <row r="547" spans="1:6" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="20"/>
-      <c r="B547" s="36" t="s">
+      <c r="B547" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C547" s="37"/>
-      <c r="D547" s="38"/>
-      <c r="E547" s="39"/>
-      <c r="F547" s="40"/>
+      <c r="C547" s="53"/>
+      <c r="D547" s="77"/>
+      <c r="E547" s="78"/>
+      <c r="F547" s="79"/>
     </row>
     <row r="548" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A548" s="20"/>
-      <c r="B548" s="41" t="s">
+      <c r="B548" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C548" s="42"/>
+      <c r="C548" s="57"/>
       <c r="D548" s="2">
         <v>1</v>
       </c>
-      <c r="E548" s="47" t="s">
+      <c r="E548" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F548" s="48"/>
+      <c r="F548" s="62"/>
     </row>
     <row r="549" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A549" s="20"/>
-      <c r="B549" s="43"/>
-      <c r="C549" s="44"/>
+      <c r="B549" s="58"/>
+      <c r="C549" s="59"/>
       <c r="D549" s="3">
         <v>2</v>
       </c>
-      <c r="E549" s="49" t="s">
+      <c r="E549" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F549" s="50"/>
+      <c r="F549" s="34"/>
     </row>
     <row r="550" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A550" s="20"/>
-      <c r="B550" s="43"/>
-      <c r="C550" s="44"/>
+      <c r="B550" s="58"/>
+      <c r="C550" s="59"/>
       <c r="D550" s="3">
         <v>3</v>
       </c>
-      <c r="E550" s="49" t="s">
+      <c r="E550" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F550" s="50"/>
+      <c r="F550" s="34"/>
     </row>
     <row r="551" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A551" s="20"/>
-      <c r="B551" s="43"/>
-      <c r="C551" s="44"/>
+      <c r="B551" s="58"/>
+      <c r="C551" s="59"/>
       <c r="D551" s="3">
         <v>4</v>
       </c>
-      <c r="E551" s="49" t="s">
+      <c r="E551" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F551" s="50"/>
+      <c r="F551" s="34"/>
     </row>
     <row r="552" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A552" s="20"/>
-      <c r="B552" s="43"/>
-      <c r="C552" s="44"/>
+      <c r="B552" s="58"/>
+      <c r="C552" s="59"/>
       <c r="D552" s="3">
         <v>5</v>
       </c>
-      <c r="E552" s="49" t="s">
+      <c r="E552" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F552" s="50"/>
+      <c r="F552" s="34"/>
     </row>
     <row r="553" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A553" s="20"/>
-      <c r="B553" s="43"/>
-      <c r="C553" s="44"/>
+      <c r="B553" s="58"/>
+      <c r="C553" s="59"/>
       <c r="D553" s="3">
         <v>6</v>
       </c>
-      <c r="E553" s="49" t="s">
+      <c r="E553" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F553" s="50"/>
+      <c r="F553" s="34"/>
     </row>
     <row r="554" spans="1:6" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="20"/>
-      <c r="B554" s="45"/>
-      <c r="C554" s="46"/>
+      <c r="B554" s="28"/>
+      <c r="C554" s="60"/>
       <c r="D554" s="4">
         <v>7</v>
       </c>
-      <c r="E554" s="53" t="s">
+      <c r="E554" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F554" s="54"/>
+      <c r="F554" s="39"/>
     </row>
     <row r="555" spans="1:6" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="20"/>
@@ -9159,156 +9159,787 @@
       <c r="C556" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D556" s="55" t="s">
+      <c r="D556" s="103" t="s">
         <v>345</v>
       </c>
-      <c r="E556" s="56"/>
-      <c r="F556" s="57"/>
+      <c r="E556" s="104"/>
+      <c r="F556" s="105"/>
     </row>
     <row r="557" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A557" s="20"/>
-      <c r="B557" s="28" t="s">
+      <c r="B557" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C557" s="29"/>
-      <c r="D557" s="30" t="s">
+      <c r="C557" s="65"/>
+      <c r="D557" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E557" s="31"/>
-      <c r="F557" s="32"/>
+      <c r="E557" s="45"/>
+      <c r="F557" s="46"/>
     </row>
     <row r="558" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A558" s="20"/>
-      <c r="B558" s="33" t="s">
+      <c r="B558" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C558" s="34"/>
-      <c r="D558" s="58" t="s">
+      <c r="C558" s="48"/>
+      <c r="D558" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E558" s="59"/>
-      <c r="F558" s="60"/>
+      <c r="E558" s="75"/>
+      <c r="F558" s="76"/>
     </row>
     <row r="559" spans="1:6" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="20"/>
-      <c r="B559" s="36" t="s">
+      <c r="B559" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C559" s="37"/>
-      <c r="D559" s="38"/>
-      <c r="E559" s="39"/>
-      <c r="F559" s="40"/>
+      <c r="C559" s="53"/>
+      <c r="D559" s="77"/>
+      <c r="E559" s="78"/>
+      <c r="F559" s="79"/>
     </row>
     <row r="560" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A560" s="20"/>
-      <c r="B560" s="41" t="s">
+      <c r="B560" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C560" s="42"/>
+      <c r="C560" s="57"/>
       <c r="D560" s="2">
         <v>1</v>
       </c>
-      <c r="E560" s="47" t="s">
+      <c r="E560" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F560" s="48"/>
+      <c r="F560" s="62"/>
     </row>
     <row r="561" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="20"/>
-      <c r="B561" s="43"/>
-      <c r="C561" s="44"/>
+      <c r="B561" s="58"/>
+      <c r="C561" s="59"/>
       <c r="D561" s="3">
         <v>2</v>
       </c>
-      <c r="E561" s="49" t="s">
+      <c r="E561" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="F561" s="50"/>
+      <c r="F561" s="34"/>
     </row>
     <row r="562" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A562" s="20"/>
-      <c r="B562" s="43"/>
-      <c r="C562" s="44"/>
+      <c r="B562" s="58"/>
+      <c r="C562" s="59"/>
       <c r="D562" s="3">
         <v>3</v>
       </c>
-      <c r="E562" s="49" t="s">
+      <c r="E562" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="F562" s="50"/>
+      <c r="F562" s="34"/>
     </row>
     <row r="563" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A563" s="20"/>
-      <c r="B563" s="43"/>
-      <c r="C563" s="44"/>
+      <c r="B563" s="58"/>
+      <c r="C563" s="59"/>
       <c r="D563" s="3">
         <v>4</v>
       </c>
-      <c r="E563" s="49" t="s">
+      <c r="E563" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="F563" s="50"/>
+      <c r="F563" s="34"/>
     </row>
     <row r="564" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A564" s="20"/>
-      <c r="B564" s="43"/>
-      <c r="C564" s="44"/>
+      <c r="B564" s="58"/>
+      <c r="C564" s="59"/>
       <c r="D564" s="3">
         <v>5</v>
       </c>
-      <c r="E564" s="49" t="s">
+      <c r="E564" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="F564" s="50"/>
+      <c r="F564" s="34"/>
     </row>
     <row r="565" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A565" s="20"/>
-      <c r="B565" s="43"/>
-      <c r="C565" s="44"/>
+      <c r="B565" s="58"/>
+      <c r="C565" s="59"/>
       <c r="D565" s="3">
         <v>6</v>
       </c>
-      <c r="E565" s="49" t="s">
+      <c r="E565" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="F565" s="50"/>
+      <c r="F565" s="34"/>
     </row>
     <row r="566" spans="1:6" s="22" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="20"/>
-      <c r="B566" s="45"/>
-      <c r="C566" s="46"/>
+      <c r="B566" s="28"/>
+      <c r="C566" s="60"/>
       <c r="D566" s="4">
         <v>7</v>
       </c>
-      <c r="E566" s="53" t="s">
+      <c r="E566" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="F566" s="54"/>
+      <c r="F566" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="701">
-    <mergeCell ref="D239:F239"/>
-    <mergeCell ref="B240:C241"/>
-    <mergeCell ref="E141:G141"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="E181:G181"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="E224:G224"/>
-    <mergeCell ref="B234:F234"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="E142:G142"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="E143:G143"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="C145:D150"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F147:G147"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="E492:G492"/>
+    <mergeCell ref="C493:D493"/>
+    <mergeCell ref="E493:G493"/>
+    <mergeCell ref="C494:D494"/>
+    <mergeCell ref="E494:G494"/>
+    <mergeCell ref="C495:D495"/>
+    <mergeCell ref="E495:G495"/>
+    <mergeCell ref="C508:D508"/>
+    <mergeCell ref="E508:G508"/>
+    <mergeCell ref="C509:D516"/>
+    <mergeCell ref="F509:G509"/>
+    <mergeCell ref="F510:G510"/>
+    <mergeCell ref="F511:G511"/>
+    <mergeCell ref="F512:G512"/>
+    <mergeCell ref="F513:G513"/>
+    <mergeCell ref="F514:G514"/>
+    <mergeCell ref="F515:G515"/>
+    <mergeCell ref="F516:G516"/>
+    <mergeCell ref="B560:C566"/>
+    <mergeCell ref="E560:F560"/>
+    <mergeCell ref="E561:F561"/>
+    <mergeCell ref="E562:F562"/>
+    <mergeCell ref="E563:F563"/>
+    <mergeCell ref="E564:F564"/>
+    <mergeCell ref="E565:F565"/>
+    <mergeCell ref="E566:F566"/>
+    <mergeCell ref="C496:D503"/>
+    <mergeCell ref="F496:G496"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="F498:G498"/>
+    <mergeCell ref="F499:G499"/>
+    <mergeCell ref="F500:G500"/>
+    <mergeCell ref="F501:G501"/>
+    <mergeCell ref="F502:G502"/>
+    <mergeCell ref="F503:G503"/>
+    <mergeCell ref="C520:D520"/>
+    <mergeCell ref="E520:G520"/>
+    <mergeCell ref="E505:G505"/>
+    <mergeCell ref="C506:D506"/>
+    <mergeCell ref="E506:G506"/>
+    <mergeCell ref="C507:D507"/>
+    <mergeCell ref="E507:G507"/>
+    <mergeCell ref="E481:G481"/>
+    <mergeCell ref="E554:F554"/>
+    <mergeCell ref="D556:F556"/>
+    <mergeCell ref="B557:C557"/>
+    <mergeCell ref="D557:F557"/>
+    <mergeCell ref="B558:C558"/>
+    <mergeCell ref="D558:F558"/>
+    <mergeCell ref="B559:C559"/>
+    <mergeCell ref="D559:F559"/>
+    <mergeCell ref="D544:F544"/>
+    <mergeCell ref="B545:C545"/>
+    <mergeCell ref="D545:F545"/>
+    <mergeCell ref="B546:C546"/>
+    <mergeCell ref="D546:F546"/>
+    <mergeCell ref="B547:C547"/>
+    <mergeCell ref="D547:F547"/>
+    <mergeCell ref="B548:C554"/>
+    <mergeCell ref="E548:F548"/>
+    <mergeCell ref="E549:F549"/>
+    <mergeCell ref="E550:F550"/>
+    <mergeCell ref="E551:F551"/>
+    <mergeCell ref="E552:F552"/>
+    <mergeCell ref="E553:F553"/>
+    <mergeCell ref="E519:G519"/>
+    <mergeCell ref="C470:D477"/>
+    <mergeCell ref="F470:G470"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="C482:D482"/>
+    <mergeCell ref="E482:G482"/>
+    <mergeCell ref="C483:D490"/>
+    <mergeCell ref="F483:G483"/>
+    <mergeCell ref="F484:G484"/>
+    <mergeCell ref="F485:G485"/>
+    <mergeCell ref="F486:G486"/>
+    <mergeCell ref="F487:G487"/>
+    <mergeCell ref="F488:G488"/>
+    <mergeCell ref="F489:G489"/>
+    <mergeCell ref="F490:G490"/>
+    <mergeCell ref="F473:G473"/>
+    <mergeCell ref="F474:G474"/>
+    <mergeCell ref="F475:G475"/>
+    <mergeCell ref="F476:G476"/>
+    <mergeCell ref="F477:G477"/>
+    <mergeCell ref="E479:G479"/>
+    <mergeCell ref="C480:D480"/>
+    <mergeCell ref="E480:G480"/>
+    <mergeCell ref="C481:D481"/>
+    <mergeCell ref="C468:D468"/>
+    <mergeCell ref="E468:G468"/>
+    <mergeCell ref="C469:D469"/>
+    <mergeCell ref="E469:G469"/>
+    <mergeCell ref="C457:D457"/>
+    <mergeCell ref="E457:G457"/>
+    <mergeCell ref="C458:D462"/>
+    <mergeCell ref="F458:G458"/>
+    <mergeCell ref="F459:G459"/>
+    <mergeCell ref="F460:G460"/>
+    <mergeCell ref="F461:G461"/>
+    <mergeCell ref="C428:D432"/>
+    <mergeCell ref="F428:G428"/>
+    <mergeCell ref="F429:G429"/>
+    <mergeCell ref="F430:G430"/>
+    <mergeCell ref="F431:G431"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="F462:G462"/>
+    <mergeCell ref="E466:G466"/>
+    <mergeCell ref="C467:D467"/>
+    <mergeCell ref="E467:G467"/>
+    <mergeCell ref="F450:G450"/>
+    <mergeCell ref="F451:G451"/>
+    <mergeCell ref="F452:G452"/>
+    <mergeCell ref="E424:G424"/>
+    <mergeCell ref="C425:D425"/>
+    <mergeCell ref="E425:G425"/>
+    <mergeCell ref="C426:D426"/>
+    <mergeCell ref="E426:G426"/>
+    <mergeCell ref="C427:D427"/>
+    <mergeCell ref="E427:G427"/>
+    <mergeCell ref="F432:G432"/>
+    <mergeCell ref="E434:G434"/>
+    <mergeCell ref="C435:D435"/>
+    <mergeCell ref="E435:G435"/>
+    <mergeCell ref="C436:D436"/>
+    <mergeCell ref="E436:G436"/>
+    <mergeCell ref="C437:D437"/>
+    <mergeCell ref="E437:G437"/>
+    <mergeCell ref="C438:D442"/>
+    <mergeCell ref="F438:G438"/>
+    <mergeCell ref="F439:G439"/>
+    <mergeCell ref="F440:G440"/>
+    <mergeCell ref="F441:G441"/>
+    <mergeCell ref="F442:G442"/>
+    <mergeCell ref="C416:D416"/>
+    <mergeCell ref="E416:G416"/>
+    <mergeCell ref="E454:G454"/>
+    <mergeCell ref="C455:D455"/>
+    <mergeCell ref="E455:G455"/>
+    <mergeCell ref="C456:D456"/>
+    <mergeCell ref="C417:D417"/>
+    <mergeCell ref="E417:G417"/>
+    <mergeCell ref="C418:D422"/>
+    <mergeCell ref="F418:G418"/>
+    <mergeCell ref="F419:G419"/>
+    <mergeCell ref="F420:G420"/>
+    <mergeCell ref="F421:G421"/>
+    <mergeCell ref="F422:G422"/>
+    <mergeCell ref="E444:G444"/>
+    <mergeCell ref="C445:D445"/>
+    <mergeCell ref="E445:G445"/>
+    <mergeCell ref="C446:D446"/>
+    <mergeCell ref="E446:G446"/>
+    <mergeCell ref="C447:D447"/>
+    <mergeCell ref="E447:G447"/>
+    <mergeCell ref="C448:D452"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="E383:G383"/>
+    <mergeCell ref="C384:D390"/>
+    <mergeCell ref="F384:G384"/>
+    <mergeCell ref="F385:G385"/>
+    <mergeCell ref="F386:G386"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="F388:G388"/>
+    <mergeCell ref="F389:G389"/>
+    <mergeCell ref="C415:D415"/>
+    <mergeCell ref="E415:G415"/>
+    <mergeCell ref="E404:G404"/>
+    <mergeCell ref="C405:D405"/>
+    <mergeCell ref="E405:G405"/>
+    <mergeCell ref="C406:D406"/>
+    <mergeCell ref="E406:G406"/>
+    <mergeCell ref="C407:D407"/>
+    <mergeCell ref="E407:G407"/>
+    <mergeCell ref="C408:D412"/>
+    <mergeCell ref="F408:G408"/>
+    <mergeCell ref="F409:G409"/>
+    <mergeCell ref="F410:G410"/>
+    <mergeCell ref="F411:G411"/>
+    <mergeCell ref="F412:G412"/>
+    <mergeCell ref="E414:G414"/>
+    <mergeCell ref="E369:G369"/>
+    <mergeCell ref="C370:D370"/>
+    <mergeCell ref="E370:G370"/>
+    <mergeCell ref="C371:D371"/>
+    <mergeCell ref="E371:G371"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="C373:D378"/>
+    <mergeCell ref="F402:G402"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="F376:G376"/>
+    <mergeCell ref="F377:G377"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="E392:G392"/>
+    <mergeCell ref="C393:D393"/>
+    <mergeCell ref="E393:G393"/>
+    <mergeCell ref="C394:D394"/>
+    <mergeCell ref="E394:G394"/>
+    <mergeCell ref="E380:G380"/>
+    <mergeCell ref="C381:D381"/>
+    <mergeCell ref="E381:G381"/>
+    <mergeCell ref="C382:D382"/>
+    <mergeCell ref="E382:G382"/>
+    <mergeCell ref="C383:D383"/>
+    <mergeCell ref="D323:F323"/>
+    <mergeCell ref="E316:F316"/>
+    <mergeCell ref="C395:D395"/>
+    <mergeCell ref="E395:G395"/>
+    <mergeCell ref="C396:D402"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="F397:G397"/>
+    <mergeCell ref="F398:G398"/>
+    <mergeCell ref="F399:G399"/>
+    <mergeCell ref="F400:G400"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="E346:G346"/>
+    <mergeCell ref="C347:D347"/>
+    <mergeCell ref="E347:G347"/>
+    <mergeCell ref="C348:D348"/>
+    <mergeCell ref="E348:G348"/>
+    <mergeCell ref="C349:D349"/>
+    <mergeCell ref="E349:G349"/>
+    <mergeCell ref="C350:D355"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="F352:G352"/>
+    <mergeCell ref="F353:G353"/>
+    <mergeCell ref="F354:G354"/>
+    <mergeCell ref="D314:F314"/>
+    <mergeCell ref="B315:C321"/>
+    <mergeCell ref="E315:F315"/>
+    <mergeCell ref="E317:F317"/>
+    <mergeCell ref="E318:F318"/>
+    <mergeCell ref="E320:F320"/>
+    <mergeCell ref="E321:F321"/>
+    <mergeCell ref="C303:D309"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="E319:F319"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:F312"/>
+    <mergeCell ref="B313:C313"/>
+    <mergeCell ref="D313:F313"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="B326:C326"/>
+    <mergeCell ref="D326:F326"/>
+    <mergeCell ref="E328:F328"/>
+    <mergeCell ref="E330:F330"/>
+    <mergeCell ref="E331:F331"/>
+    <mergeCell ref="E329:F329"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="B337:C342"/>
+    <mergeCell ref="E337:F337"/>
+    <mergeCell ref="E338:F338"/>
+    <mergeCell ref="E339:F339"/>
+    <mergeCell ref="C358:D358"/>
+    <mergeCell ref="E358:G358"/>
+    <mergeCell ref="C359:D359"/>
+    <mergeCell ref="E359:G359"/>
+    <mergeCell ref="C360:D360"/>
+    <mergeCell ref="E360:G360"/>
+    <mergeCell ref="C361:D367"/>
+    <mergeCell ref="E340:F340"/>
+    <mergeCell ref="E341:F341"/>
+    <mergeCell ref="E342:F342"/>
+    <mergeCell ref="F361:G361"/>
+    <mergeCell ref="F362:G362"/>
+    <mergeCell ref="F363:G363"/>
+    <mergeCell ref="F364:G364"/>
+    <mergeCell ref="F365:G365"/>
+    <mergeCell ref="F366:G366"/>
+    <mergeCell ref="F367:G367"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:G97"/>
+    <mergeCell ref="C98:D100"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="E279:G279"/>
+    <mergeCell ref="C280:D280"/>
+    <mergeCell ref="E280:G280"/>
+    <mergeCell ref="C281:D285"/>
+    <mergeCell ref="F281:G281"/>
+    <mergeCell ref="F282:G282"/>
+    <mergeCell ref="C521:D521"/>
+    <mergeCell ref="E521:G521"/>
+    <mergeCell ref="C522:D529"/>
+    <mergeCell ref="F522:G522"/>
+    <mergeCell ref="F523:G523"/>
+    <mergeCell ref="F524:G524"/>
+    <mergeCell ref="F525:G525"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="B327:C331"/>
+    <mergeCell ref="E327:F327"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="B325:C325"/>
+    <mergeCell ref="D325:F325"/>
+    <mergeCell ref="D333:F333"/>
+    <mergeCell ref="B334:C334"/>
+    <mergeCell ref="D334:F334"/>
+    <mergeCell ref="B335:C335"/>
+    <mergeCell ref="D335:F335"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="F373:G373"/>
+    <mergeCell ref="F374:G374"/>
+    <mergeCell ref="F355:G355"/>
+    <mergeCell ref="F390:G390"/>
+    <mergeCell ref="E357:G357"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="E299:G299"/>
+    <mergeCell ref="C300:D300"/>
+    <mergeCell ref="E300:G300"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="E301:G301"/>
+    <mergeCell ref="C290:D290"/>
+    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="C291:D297"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="E265:G265"/>
+    <mergeCell ref="C266:D266"/>
+    <mergeCell ref="E266:G266"/>
+    <mergeCell ref="C267:D267"/>
+    <mergeCell ref="E267:G267"/>
+    <mergeCell ref="C268:D268"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="C269:D275"/>
+    <mergeCell ref="F269:G269"/>
+    <mergeCell ref="F270:G270"/>
+    <mergeCell ref="F271:G271"/>
+    <mergeCell ref="F272:G272"/>
+    <mergeCell ref="F273:G273"/>
+    <mergeCell ref="F275:G275"/>
+    <mergeCell ref="C247:D251"/>
+    <mergeCell ref="F247:G247"/>
+    <mergeCell ref="F248:G248"/>
+    <mergeCell ref="F251:G251"/>
+    <mergeCell ref="F250:G250"/>
+    <mergeCell ref="E277:G277"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="E278:G278"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="E253:G253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="E254:G254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="E255:G255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="E256:G256"/>
+    <mergeCell ref="C257:D263"/>
+    <mergeCell ref="F257:G257"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F263:G263"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="F262:G262"/>
+    <mergeCell ref="E240:F240"/>
+    <mergeCell ref="E241:F241"/>
+    <mergeCell ref="E243:G243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="E244:G244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="E245:G245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="E246:G246"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="E225:G225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:G226"/>
+    <mergeCell ref="C227:D227"/>
+    <mergeCell ref="E227:G227"/>
+    <mergeCell ref="C228:D232"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="F232:G232"/>
+    <mergeCell ref="F229:G229"/>
+    <mergeCell ref="F230:G230"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="E215:G215"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="D174:F174"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="C77:D85"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="C91:D92"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="F201:G201"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E213:G213"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:G214"/>
+    <mergeCell ref="B8:C14"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="C217:D222"/>
+    <mergeCell ref="F217:G217"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="F219:G219"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B124:C125"/>
+    <mergeCell ref="F139:G139"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C131:D139"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E199:G199"/>
+    <mergeCell ref="C200:D202"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:G216"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B20:C27"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="E198:G198"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="B152:F152"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C106:D111"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="E129:G129"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="F135:G135"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D51"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D37"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="F185:G185"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D175:F175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:F176"/>
+    <mergeCell ref="B177:C178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="B171:F171"/>
+    <mergeCell ref="D173:F173"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B344:F344"/>
+    <mergeCell ref="C534:D534"/>
+    <mergeCell ref="E534:G534"/>
+    <mergeCell ref="C535:D542"/>
+    <mergeCell ref="F535:G535"/>
+    <mergeCell ref="F536:G536"/>
+    <mergeCell ref="F537:G537"/>
+    <mergeCell ref="F538:G538"/>
+    <mergeCell ref="F539:G539"/>
+    <mergeCell ref="F540:G540"/>
+    <mergeCell ref="F541:G541"/>
+    <mergeCell ref="F542:G542"/>
+    <mergeCell ref="B464:F464"/>
+    <mergeCell ref="F526:G526"/>
+    <mergeCell ref="F527:G527"/>
+    <mergeCell ref="F528:G528"/>
+    <mergeCell ref="F529:G529"/>
+    <mergeCell ref="E531:G531"/>
+    <mergeCell ref="C532:D532"/>
+    <mergeCell ref="E532:G532"/>
+    <mergeCell ref="C533:D533"/>
+    <mergeCell ref="E533:G533"/>
+    <mergeCell ref="E518:G518"/>
+    <mergeCell ref="C519:D519"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="C63:D71"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="E113:G113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:G114"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="E115:G115"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="E116:G116"/>
+    <mergeCell ref="C117:D118"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="F137:G137"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="E128:G128"/>
+    <mergeCell ref="E127:G127"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="B158:C169"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="D206:F206"/>
+    <mergeCell ref="E287:G287"/>
+    <mergeCell ref="C288:D288"/>
+    <mergeCell ref="D207:F207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:F208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:F209"/>
+    <mergeCell ref="B210:C211"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="E196:G196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:F237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:F238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="F184:G184"/>
     <mergeCell ref="C130:D130"/>
     <mergeCell ref="E130:G130"/>
     <mergeCell ref="F132:G132"/>
@@ -9333,661 +9964,30 @@
     <mergeCell ref="F186:G186"/>
     <mergeCell ref="F187:G187"/>
     <mergeCell ref="C142:D142"/>
+    <mergeCell ref="D239:F239"/>
+    <mergeCell ref="B240:C241"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="E181:G181"/>
+    <mergeCell ref="F191:G191"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="E224:G224"/>
+    <mergeCell ref="B234:F234"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="E142:G142"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="E143:G143"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="C145:D150"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F147:G147"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="F150:G150"/>
     <mergeCell ref="E160:F160"/>
     <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="D206:F206"/>
-    <mergeCell ref="E287:G287"/>
-    <mergeCell ref="C288:D288"/>
-    <mergeCell ref="D207:F207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:F208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:F209"/>
-    <mergeCell ref="B210:C211"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="E196:G196"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:F237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="D238:F238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="E113:G113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="E114:G114"/>
-    <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="E115:G115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="E116:G116"/>
-    <mergeCell ref="C117:D118"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="F137:G137"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="E128:G128"/>
-    <mergeCell ref="E127:G127"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="B158:C169"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="B344:F344"/>
-    <mergeCell ref="C534:D534"/>
-    <mergeCell ref="E534:G534"/>
-    <mergeCell ref="C535:D542"/>
-    <mergeCell ref="F535:G535"/>
-    <mergeCell ref="F536:G536"/>
-    <mergeCell ref="F537:G537"/>
-    <mergeCell ref="F538:G538"/>
-    <mergeCell ref="F539:G539"/>
-    <mergeCell ref="F540:G540"/>
-    <mergeCell ref="F541:G541"/>
-    <mergeCell ref="F542:G542"/>
-    <mergeCell ref="B464:F464"/>
-    <mergeCell ref="F526:G526"/>
-    <mergeCell ref="F527:G527"/>
-    <mergeCell ref="F528:G528"/>
-    <mergeCell ref="F529:G529"/>
-    <mergeCell ref="E531:G531"/>
-    <mergeCell ref="C532:D532"/>
-    <mergeCell ref="E532:G532"/>
-    <mergeCell ref="C533:D533"/>
-    <mergeCell ref="E533:G533"/>
-    <mergeCell ref="E518:G518"/>
-    <mergeCell ref="C519:D519"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="F185:G185"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D175:F175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:F176"/>
-    <mergeCell ref="B177:C178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="B171:F171"/>
-    <mergeCell ref="D173:F173"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D51"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D37"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="B152:F152"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C106:D111"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="E129:G129"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="F135:G135"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:G216"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B20:C27"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E198:G198"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="C63:D71"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="C217:D222"/>
-    <mergeCell ref="F217:G217"/>
-    <mergeCell ref="F218:G218"/>
-    <mergeCell ref="F219:G219"/>
-    <mergeCell ref="F220:G220"/>
-    <mergeCell ref="F222:G222"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="B124:C125"/>
-    <mergeCell ref="F139:G139"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C131:D139"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E199:G199"/>
-    <mergeCell ref="C200:D202"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="F201:G201"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E213:G213"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:G214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="E215:G215"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="D174:F174"/>
-    <mergeCell ref="B8:C14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="C77:D85"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:G225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="C227:D227"/>
-    <mergeCell ref="E227:G227"/>
-    <mergeCell ref="C228:D232"/>
-    <mergeCell ref="F228:G228"/>
-    <mergeCell ref="F232:G232"/>
-    <mergeCell ref="F229:G229"/>
-    <mergeCell ref="F230:G230"/>
-    <mergeCell ref="E240:F240"/>
-    <mergeCell ref="E241:F241"/>
-    <mergeCell ref="E243:G243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="E244:G244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="E245:G245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="E246:G246"/>
-    <mergeCell ref="C247:D251"/>
-    <mergeCell ref="F247:G247"/>
-    <mergeCell ref="F248:G248"/>
-    <mergeCell ref="F251:G251"/>
-    <mergeCell ref="F250:G250"/>
-    <mergeCell ref="E277:G277"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="E278:G278"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="E253:G253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="E254:G254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="E255:G255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="E256:G256"/>
-    <mergeCell ref="C257:D263"/>
-    <mergeCell ref="F257:G257"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="F263:G263"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="F262:G262"/>
-    <mergeCell ref="E265:G265"/>
-    <mergeCell ref="C266:D266"/>
-    <mergeCell ref="E266:G266"/>
-    <mergeCell ref="C267:D267"/>
-    <mergeCell ref="E267:G267"/>
-    <mergeCell ref="C268:D268"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="C269:D275"/>
-    <mergeCell ref="F269:G269"/>
-    <mergeCell ref="F270:G270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="F272:G272"/>
-    <mergeCell ref="F273:G273"/>
-    <mergeCell ref="F275:G275"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="E299:G299"/>
-    <mergeCell ref="C300:D300"/>
-    <mergeCell ref="E300:G300"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="E301:G301"/>
-    <mergeCell ref="C290:D290"/>
-    <mergeCell ref="E290:G290"/>
-    <mergeCell ref="C291:D297"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="C521:D521"/>
-    <mergeCell ref="E521:G521"/>
-    <mergeCell ref="C522:D529"/>
-    <mergeCell ref="F522:G522"/>
-    <mergeCell ref="F523:G523"/>
-    <mergeCell ref="F524:G524"/>
-    <mergeCell ref="F525:G525"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="B327:C331"/>
-    <mergeCell ref="E327:F327"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="B325:C325"/>
-    <mergeCell ref="D325:F325"/>
-    <mergeCell ref="D333:F333"/>
-    <mergeCell ref="B334:C334"/>
-    <mergeCell ref="D334:F334"/>
-    <mergeCell ref="B335:C335"/>
-    <mergeCell ref="D335:F335"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="C91:D92"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:G97"/>
-    <mergeCell ref="C98:D100"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="E279:G279"/>
-    <mergeCell ref="C280:D280"/>
-    <mergeCell ref="E280:G280"/>
-    <mergeCell ref="C281:D285"/>
-    <mergeCell ref="F281:G281"/>
-    <mergeCell ref="F282:G282"/>
-    <mergeCell ref="F373:G373"/>
-    <mergeCell ref="F374:G374"/>
-    <mergeCell ref="F355:G355"/>
-    <mergeCell ref="F390:G390"/>
-    <mergeCell ref="E357:G357"/>
-    <mergeCell ref="C358:D358"/>
-    <mergeCell ref="E358:G358"/>
-    <mergeCell ref="C359:D359"/>
-    <mergeCell ref="E359:G359"/>
-    <mergeCell ref="C360:D360"/>
-    <mergeCell ref="E360:G360"/>
-    <mergeCell ref="C361:D367"/>
-    <mergeCell ref="E340:F340"/>
-    <mergeCell ref="E341:F341"/>
-    <mergeCell ref="E342:F342"/>
-    <mergeCell ref="B326:C326"/>
-    <mergeCell ref="D326:F326"/>
-    <mergeCell ref="E328:F328"/>
-    <mergeCell ref="E330:F330"/>
-    <mergeCell ref="E331:F331"/>
-    <mergeCell ref="E329:F329"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="B337:C342"/>
-    <mergeCell ref="E337:F337"/>
-    <mergeCell ref="E338:F338"/>
-    <mergeCell ref="E339:F339"/>
-    <mergeCell ref="D314:F314"/>
-    <mergeCell ref="B315:C321"/>
-    <mergeCell ref="E315:F315"/>
-    <mergeCell ref="E317:F317"/>
-    <mergeCell ref="E318:F318"/>
-    <mergeCell ref="E320:F320"/>
-    <mergeCell ref="E321:F321"/>
-    <mergeCell ref="C303:D309"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="B314:C314"/>
-    <mergeCell ref="E319:F319"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:F312"/>
-    <mergeCell ref="B313:C313"/>
-    <mergeCell ref="D313:F313"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="D323:F323"/>
-    <mergeCell ref="E316:F316"/>
-    <mergeCell ref="C395:D395"/>
-    <mergeCell ref="E395:G395"/>
-    <mergeCell ref="C396:D402"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="F398:G398"/>
-    <mergeCell ref="F399:G399"/>
-    <mergeCell ref="F400:G400"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="E346:G346"/>
-    <mergeCell ref="C347:D347"/>
-    <mergeCell ref="E347:G347"/>
-    <mergeCell ref="C348:D348"/>
-    <mergeCell ref="E348:G348"/>
-    <mergeCell ref="C349:D349"/>
-    <mergeCell ref="E349:G349"/>
-    <mergeCell ref="C350:D355"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="F352:G352"/>
-    <mergeCell ref="F353:G353"/>
-    <mergeCell ref="F354:G354"/>
-    <mergeCell ref="F361:G361"/>
-    <mergeCell ref="F362:G362"/>
-    <mergeCell ref="F363:G363"/>
-    <mergeCell ref="F364:G364"/>
-    <mergeCell ref="F365:G365"/>
-    <mergeCell ref="F366:G366"/>
-    <mergeCell ref="F367:G367"/>
-    <mergeCell ref="E369:G369"/>
-    <mergeCell ref="C370:D370"/>
-    <mergeCell ref="E370:G370"/>
-    <mergeCell ref="C371:D371"/>
-    <mergeCell ref="E371:G371"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="C373:D378"/>
-    <mergeCell ref="F402:G402"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="F376:G376"/>
-    <mergeCell ref="F377:G377"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="E392:G392"/>
-    <mergeCell ref="C393:D393"/>
-    <mergeCell ref="E393:G393"/>
-    <mergeCell ref="C394:D394"/>
-    <mergeCell ref="E394:G394"/>
-    <mergeCell ref="E380:G380"/>
-    <mergeCell ref="C381:D381"/>
-    <mergeCell ref="E381:G381"/>
-    <mergeCell ref="C382:D382"/>
-    <mergeCell ref="E382:G382"/>
-    <mergeCell ref="C383:D383"/>
-    <mergeCell ref="E383:G383"/>
-    <mergeCell ref="C384:D390"/>
-    <mergeCell ref="F384:G384"/>
-    <mergeCell ref="F385:G385"/>
-    <mergeCell ref="F386:G386"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="F388:G388"/>
-    <mergeCell ref="F389:G389"/>
-    <mergeCell ref="C415:D415"/>
-    <mergeCell ref="E415:G415"/>
-    <mergeCell ref="C416:D416"/>
-    <mergeCell ref="E416:G416"/>
-    <mergeCell ref="E454:G454"/>
-    <mergeCell ref="C455:D455"/>
-    <mergeCell ref="E455:G455"/>
-    <mergeCell ref="C456:D456"/>
-    <mergeCell ref="C417:D417"/>
-    <mergeCell ref="E417:G417"/>
-    <mergeCell ref="C418:D422"/>
-    <mergeCell ref="F418:G418"/>
-    <mergeCell ref="F419:G419"/>
-    <mergeCell ref="F420:G420"/>
-    <mergeCell ref="F421:G421"/>
-    <mergeCell ref="F422:G422"/>
-    <mergeCell ref="E444:G444"/>
-    <mergeCell ref="C445:D445"/>
-    <mergeCell ref="E445:G445"/>
-    <mergeCell ref="C446:D446"/>
-    <mergeCell ref="E446:G446"/>
-    <mergeCell ref="C447:D447"/>
-    <mergeCell ref="E447:G447"/>
-    <mergeCell ref="C448:D452"/>
-    <mergeCell ref="F448:G448"/>
-    <mergeCell ref="F449:G449"/>
-    <mergeCell ref="F450:G450"/>
-    <mergeCell ref="F451:G451"/>
-    <mergeCell ref="F452:G452"/>
-    <mergeCell ref="E424:G424"/>
-    <mergeCell ref="C425:D425"/>
-    <mergeCell ref="E425:G425"/>
-    <mergeCell ref="C426:D426"/>
-    <mergeCell ref="E426:G426"/>
-    <mergeCell ref="C427:D427"/>
-    <mergeCell ref="E427:G427"/>
-    <mergeCell ref="E404:G404"/>
-    <mergeCell ref="C405:D405"/>
-    <mergeCell ref="E405:G405"/>
-    <mergeCell ref="C406:D406"/>
-    <mergeCell ref="E406:G406"/>
-    <mergeCell ref="C407:D407"/>
-    <mergeCell ref="E407:G407"/>
-    <mergeCell ref="C408:D412"/>
-    <mergeCell ref="F408:G408"/>
-    <mergeCell ref="F409:G409"/>
-    <mergeCell ref="F410:G410"/>
-    <mergeCell ref="F411:G411"/>
-    <mergeCell ref="F412:G412"/>
-    <mergeCell ref="E414:G414"/>
-    <mergeCell ref="F432:G432"/>
-    <mergeCell ref="E434:G434"/>
-    <mergeCell ref="C435:D435"/>
-    <mergeCell ref="E435:G435"/>
-    <mergeCell ref="C436:D436"/>
-    <mergeCell ref="E436:G436"/>
-    <mergeCell ref="C437:D437"/>
-    <mergeCell ref="E437:G437"/>
-    <mergeCell ref="C438:D442"/>
-    <mergeCell ref="F438:G438"/>
-    <mergeCell ref="F439:G439"/>
-    <mergeCell ref="F440:G440"/>
-    <mergeCell ref="F441:G441"/>
-    <mergeCell ref="F442:G442"/>
-    <mergeCell ref="C428:D432"/>
-    <mergeCell ref="F428:G428"/>
-    <mergeCell ref="F429:G429"/>
-    <mergeCell ref="F430:G430"/>
-    <mergeCell ref="F431:G431"/>
-    <mergeCell ref="E456:G456"/>
-    <mergeCell ref="F462:G462"/>
-    <mergeCell ref="E466:G466"/>
-    <mergeCell ref="C467:D467"/>
-    <mergeCell ref="E467:G467"/>
-    <mergeCell ref="C468:D468"/>
-    <mergeCell ref="E468:G468"/>
-    <mergeCell ref="C469:D469"/>
-    <mergeCell ref="E469:G469"/>
-    <mergeCell ref="C457:D457"/>
-    <mergeCell ref="E457:G457"/>
-    <mergeCell ref="C458:D462"/>
-    <mergeCell ref="F458:G458"/>
-    <mergeCell ref="F459:G459"/>
-    <mergeCell ref="F460:G460"/>
-    <mergeCell ref="F461:G461"/>
-    <mergeCell ref="C470:D477"/>
-    <mergeCell ref="F470:G470"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="C482:D482"/>
-    <mergeCell ref="E482:G482"/>
-    <mergeCell ref="C483:D490"/>
-    <mergeCell ref="F483:G483"/>
-    <mergeCell ref="F484:G484"/>
-    <mergeCell ref="F485:G485"/>
-    <mergeCell ref="F486:G486"/>
-    <mergeCell ref="F487:G487"/>
-    <mergeCell ref="F488:G488"/>
-    <mergeCell ref="F489:G489"/>
-    <mergeCell ref="F490:G490"/>
-    <mergeCell ref="F473:G473"/>
-    <mergeCell ref="F474:G474"/>
-    <mergeCell ref="F475:G475"/>
-    <mergeCell ref="F476:G476"/>
-    <mergeCell ref="F477:G477"/>
-    <mergeCell ref="E479:G479"/>
-    <mergeCell ref="C480:D480"/>
-    <mergeCell ref="E480:G480"/>
-    <mergeCell ref="C481:D481"/>
-    <mergeCell ref="E481:G481"/>
-    <mergeCell ref="E554:F554"/>
-    <mergeCell ref="D556:F556"/>
-    <mergeCell ref="B557:C557"/>
-    <mergeCell ref="D557:F557"/>
-    <mergeCell ref="B558:C558"/>
-    <mergeCell ref="D558:F558"/>
-    <mergeCell ref="B559:C559"/>
-    <mergeCell ref="D559:F559"/>
-    <mergeCell ref="D544:F544"/>
-    <mergeCell ref="B545:C545"/>
-    <mergeCell ref="D545:F545"/>
-    <mergeCell ref="B546:C546"/>
-    <mergeCell ref="D546:F546"/>
-    <mergeCell ref="B547:C547"/>
-    <mergeCell ref="D547:F547"/>
-    <mergeCell ref="B548:C554"/>
-    <mergeCell ref="E548:F548"/>
-    <mergeCell ref="E549:F549"/>
-    <mergeCell ref="E550:F550"/>
-    <mergeCell ref="E551:F551"/>
-    <mergeCell ref="E552:F552"/>
-    <mergeCell ref="E553:F553"/>
-    <mergeCell ref="E519:G519"/>
-    <mergeCell ref="B560:C566"/>
-    <mergeCell ref="E560:F560"/>
-    <mergeCell ref="E561:F561"/>
-    <mergeCell ref="E562:F562"/>
-    <mergeCell ref="E563:F563"/>
-    <mergeCell ref="E564:F564"/>
-    <mergeCell ref="E565:F565"/>
-    <mergeCell ref="E566:F566"/>
-    <mergeCell ref="C496:D503"/>
-    <mergeCell ref="F496:G496"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="F498:G498"/>
-    <mergeCell ref="F499:G499"/>
-    <mergeCell ref="F500:G500"/>
-    <mergeCell ref="F501:G501"/>
-    <mergeCell ref="F502:G502"/>
-    <mergeCell ref="F503:G503"/>
-    <mergeCell ref="C520:D520"/>
-    <mergeCell ref="E520:G520"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E505:G505"/>
-    <mergeCell ref="C506:D506"/>
-    <mergeCell ref="E506:G506"/>
-    <mergeCell ref="C507:D507"/>
-    <mergeCell ref="E507:G507"/>
-    <mergeCell ref="C508:D508"/>
-    <mergeCell ref="E508:G508"/>
-    <mergeCell ref="C509:D516"/>
-    <mergeCell ref="F509:G509"/>
-    <mergeCell ref="F510:G510"/>
-    <mergeCell ref="F511:G511"/>
-    <mergeCell ref="F512:G512"/>
-    <mergeCell ref="F513:G513"/>
-    <mergeCell ref="F514:G514"/>
-    <mergeCell ref="F515:G515"/>
-    <mergeCell ref="F516:G516"/>
-    <mergeCell ref="E492:G492"/>
-    <mergeCell ref="C493:D493"/>
-    <mergeCell ref="E493:G493"/>
-    <mergeCell ref="C494:D494"/>
-    <mergeCell ref="E494:G494"/>
-    <mergeCell ref="C495:D495"/>
-    <mergeCell ref="E495:G495"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
